--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="22572" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -259,14 +259,46 @@
   </si>
   <si>
     <t>은아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다정, 경열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,22 +410,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,6 +520,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -519,6 +555,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -694,22 +731,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:D45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -722,39 +759,43 @@
       <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -765,13 +806,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -780,484 +821,526 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="C7" s="19"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="C11" s="16"/>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="C12" s="16"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="C13" s="16"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="C14" s="16"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="C15" s="16"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="16"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="16"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="16"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19" s="16"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C20" s="16"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="C21" s="16"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="19"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="C39" s="19"/>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="C40" s="19"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="19"/>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="C43" s="19"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="19"/>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="C44" s="19"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="C45" s="19"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="D54" s="15" t="s">
+      <c r="C54" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="C55" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="D59" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="15"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="2"/>
+      <c r="C61" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="D61" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D63" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="16"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="D4:D7"/>
@@ -1273,14 +1356,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1289,12 +1364,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1302,12 +1377,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="22572" windowHeight="9360"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -291,6 +291,14 @@
   </si>
   <si>
     <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,25 +418,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,21 +740,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -771,7 +779,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -783,19 +791,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -806,13 +814,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -821,525 +829,531 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C6" s="16"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C7" s="16"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C11" s="18"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C12" s="18"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C13" s="18"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C14" s="18"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C15" s="18"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C16" s="18"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="18"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="18"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="18"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C20" s="18"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C21" s="18"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C39" s="16"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C40" s="16"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C43" s="16"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C44" s="16"/>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C45" s="16"/>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="19"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="15" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
+      <c r="D63" s="16"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="20" t="s">
+      <c r="B65" s="2"/>
+      <c r="C65" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D65" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="19"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="16"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="14" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="13" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
+  <mergeCells count="27">
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -1356,6 +1370,17 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D61:D63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1369,7 +1394,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1382,7 +1407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="22572" windowHeight="9360"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,8 +297,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,6 +416,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,12 +432,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,7 +523,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -555,7 +557,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -731,22 +732,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -771,7 +772,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -783,19 +784,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -806,13 +807,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -821,465 +822,465 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C6" s="17"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C7" s="17"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C10" s="19"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C11" s="19"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C12" s="19"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C13" s="19"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C14" s="19"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C15" s="19"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C16" s="19"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="19"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="19"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C20" s="19"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C21" s="19"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C39" s="17"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C40" s="17"/>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C43" s="17"/>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C44" s="17"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C45" s="17"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="19"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -1291,35 +1292,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="19"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C64" s="18"/>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -1330,16 +1331,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -1356,6 +1347,16 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1364,12 +1365,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,12 +1378,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -287,6 +287,166 @@
   </si>
   <si>
     <t>배포틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구분 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천여행지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만의코스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리 메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의여행리스트 메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 여행 리스트선택,추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 모달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 여행 리스트 리스트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명세서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤다정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일겸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김일겸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정은아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최경열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이욱재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤다정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤다정, 최경열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원보연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이드북 다운로드 메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -297,8 +457,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,8 +474,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +530,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -361,13 +545,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,19 +693,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,6 +857,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -557,6 +892,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -732,14 +1068,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
@@ -747,7 +1083,7 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -772,7 +1108,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -784,17 +1120,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="17" t="s">
-        <v>54</v>
+      <c r="C4" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>60</v>
@@ -807,12 +1143,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="21"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -822,391 +1158,391 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="C10" s="18"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="C11" s="18"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="C12" s="18"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="C13" s="18"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="C14" s="18"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="C15" s="18"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="18"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="18"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="18"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19" s="18"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C20" s="18"/>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="C21" s="18"/>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="C24" s="22"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="C27" s="22"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="C28" s="22"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="C31" s="22"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="C32" s="22"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="17"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="20"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="17"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="20"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="17"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="20"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="20"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="C48" s="22"/>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="C49" s="22"/>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="18"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="C50" s="22"/>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="C51" s="22"/>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="18"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="C52" s="22"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -1214,73 +1550,73 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -1292,35 +1628,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="C64" s="19"/>
+      <c r="D64" s="22"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -1331,6 +1667,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -1347,16 +1693,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1365,25 +1701,573 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="3.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="40">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="41">
+        <v>2</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="41"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="41">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="41"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="41">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="41"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="41"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="41">
+        <v>5</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="41"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="41">
+        <v>6</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="41"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="41">
+        <v>7</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="41"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="41">
+        <v>8</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="41"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="41">
+        <v>9</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="41"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="41">
+        <v>10</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="41"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="41"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="41"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="41"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="41">
+        <v>11</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="41"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="41"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="41"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="32">
+        <v>12</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="41">
+        <v>13</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="41"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="41"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="32">
+        <v>14</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="41">
+        <v>15</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="41"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -451,14 +451,30 @@
   </si>
   <si>
     <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발난도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,21 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -724,9 +725,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -763,6 +761,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,7 +873,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -892,7 +907,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1068,14 +1082,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
@@ -1083,7 +1097,7 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1108,7 +1122,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1120,19 +1134,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1143,13 +1157,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1158,391 +1172,391 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="35"/>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="35"/>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="37"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="37"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="37"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="37"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="37"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="37"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="37"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="37"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="37"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="37"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="37"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="35"/>
+      <c r="D39" s="38"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="35"/>
+      <c r="D40" s="38"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="35"/>
+      <c r="D43" s="38"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="35"/>
+      <c r="D44" s="38"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="35"/>
+      <c r="D45" s="38"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="19"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="19"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="35"/>
+      <c r="D49" s="36"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="19"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -1550,73 +1564,73 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -1628,35 +1642,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="22"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="36"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -1667,16 +1681,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -1693,6 +1697,16 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1701,559 +1715,664 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="23"/>
-    <col min="2" max="2" width="3.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="3.5" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="23"/>
+    <col min="7" max="7" width="9" style="18"/>
+    <col min="8" max="8" width="9.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:8" s="27" customFormat="1" ht="18" thickBot="1">
+      <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="32" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="40">
+      <c r="H2" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="34">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="41">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="41"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="41">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="41"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="41"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="41">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="41">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C9" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D9" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E9" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F9" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="41"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="41"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="41">
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="41">
         <v>5</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C12" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D12" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E12" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F12" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26" t="s">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="41"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="41"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="41">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="41">
         <v>6</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C15" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E15" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F15" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="41"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26" t="s">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="41"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="41">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="41">
         <v>7</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C18" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E18" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F18" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26" t="s">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="41"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="41"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="41">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="41">
         <v>8</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C21" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D21" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E21" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F21" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26" t="s">
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="41"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="41">
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="41">
         <v>9</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C24" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D24" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E24" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F24" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26" t="s">
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="41"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="41"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="41">
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="41">
         <v>10</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C27" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D27" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E27" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F27" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="41"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="26" t="s">
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="41"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="41"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="41"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="26" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="41"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="41"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26" t="s">
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="41"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="41">
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="41">
         <v>11</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C32" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D32" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E32" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F32" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="26" t="s">
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="41"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="26" t="s">
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="41"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E34" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F34" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26" t="s">
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="41"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="32">
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="26">
         <v>12</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C36" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D36" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E36" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F36" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="41">
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="41">
         <v>13</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C37" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D37" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E37" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F37" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="29"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="41"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28" t="s">
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="41"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="41"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28" t="s">
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="41"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="32">
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="26">
         <v>14</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C40" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="25" t="s">
+      <c r="D40" s="25"/>
+      <c r="E40" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="41">
+      <c r="F40" s="20"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="41">
         <v>15</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C41" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D41" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E41" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F41" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="29"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="41"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="29" t="s">
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="41"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="29"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C21:C23"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2262,12 +2381,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="22572" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,21 +696,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -724,9 +709,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -763,6 +745,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,15 +1075,15 @@
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1120,19 +1120,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1143,13 +1143,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1158,391 +1158,391 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="35"/>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="35"/>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="37"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="37"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="37"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="37"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="37"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="37"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="37"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="37"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="37"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="37"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="37"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="35"/>
+      <c r="D39" s="38"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="35"/>
+      <c r="D40" s="38"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="35"/>
+      <c r="D43" s="38"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="35"/>
+      <c r="D44" s="38"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="35"/>
+      <c r="D45" s="38"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="19"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="19"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="35"/>
+      <c r="D49" s="36"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="19"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -1550,73 +1550,73 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -1628,35 +1628,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="22"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="36"/>
+      <c r="D64" s="35"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -1667,16 +1667,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -1693,6 +1683,16 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1704,506 +1704,540 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="23"/>
-    <col min="2" max="2" width="3.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="3.5" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="23"/>
+    <col min="4" max="4" width="26.19921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" s="33" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:7" s="27" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="40">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="34">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="41">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="41"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="41">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="41"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="41">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="41"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="41"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="41">
         <v>5</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="41"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="41">
         <v>6</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="41"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="41">
         <v>7</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="41"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="41">
         <v>8</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="41"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="41">
         <v>9</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="41"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="41">
         <v>10</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="41"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="26" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="41"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="41"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="41"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="41">
         <v>11</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="41"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="41"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="41"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="32">
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="26">
         <v>12</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="41">
         <v>13</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="29"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="41"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="41"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="32">
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="26">
         <v>14</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="25" t="s">
+      <c r="D34" s="25"/>
+      <c r="E34" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F34" s="20"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="41">
         <v>15</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="29"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="41"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="29" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="29"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B8:B10"/>
@@ -2220,40 +2254,6 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2267,7 +2267,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="131">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -451,6 +451,66 @@
   </si>
   <si>
     <t>개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최경열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤다정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김일겸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원보연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이욱재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정은아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new붙이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정이랑 작성분리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,8 +596,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -635,13 +701,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,25 +874,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,10 +1283,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1148,8 +1302,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1163,8 +1317,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
@@ -1173,8 +1327,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -1185,10 +1339,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="39" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1197,88 +1351,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="39"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
@@ -1287,8 +1441,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="39"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1299,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="39" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="36" t="s">
@@ -1311,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="35"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1323,7 +1477,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="39" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="36" t="s">
@@ -1335,7 +1489,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="35"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1343,7 +1497,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="35"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1355,7 +1509,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="39" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="36" t="s">
@@ -1367,7 +1521,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="35"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1375,7 +1529,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="35"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="36"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1387,10 +1541,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="35" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1399,16 +1553,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
@@ -1419,10 +1573,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="37" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1431,16 +1585,16 @@
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
@@ -1451,10 +1605,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="37" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1465,22 +1619,22 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="37"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="37"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="37"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="12"/>
@@ -1491,7 +1645,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="39" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="36" t="s">
@@ -1503,7 +1657,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="35"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="36"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1511,7 +1665,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="35"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="36"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1519,7 +1673,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="35"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="36"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1527,7 +1681,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="35"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="36"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -1535,7 +1689,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="35"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="36"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1550,7 +1704,7 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="39" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1559,18 +1713,18 @@
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="35"/>
+      <c r="D55" s="39"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
@@ -1579,10 +1733,10 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="39" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1593,18 +1747,18 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="39" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1613,8 +1767,8 @@
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
@@ -1640,7 +1794,7 @@
       <c r="C63" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="39" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1650,7 +1804,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="36"/>
-      <c r="D64" s="35"/>
+      <c r="D64" s="39"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
@@ -1667,6 +1821,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -1683,16 +1847,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1702,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G36"/>
+  <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1716,11 +1870,13 @@
     <col min="4" max="4" width="26.19921875" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.69921875" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.09765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="18"/>
+    <col min="7" max="8" width="9" style="18"/>
+    <col min="9" max="9" width="11.09765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" s="27" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:13" s="27" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
@@ -1739,8 +1895,18 @@
       <c r="G2" s="32" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="34">
         <v>1</v>
       </c>
@@ -1757,8 +1923,16 @@
         <v>102</v>
       </c>
       <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="L3" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="48"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="41">
         <v>2</v>
       </c>
@@ -1775,8 +1949,12 @@
         <v>106</v>
       </c>
       <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I4" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="41"/>
       <c r="C5" s="40"/>
       <c r="D5" s="21" t="s">
@@ -1785,8 +1963,12 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I5" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="41">
         <v>3</v>
       </c>
@@ -1803,8 +1985,12 @@
         <v>107</v>
       </c>
       <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I6" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="41"/>
       <c r="C7" s="40"/>
       <c r="D7" s="21" t="s">
@@ -1813,8 +1999,12 @@
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I7" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="41">
         <v>4</v>
       </c>
@@ -1832,7 +2022,7 @@
       </c>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="41"/>
       <c r="C9" s="40"/>
       <c r="D9" s="21" t="s">
@@ -1842,7 +2032,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="41"/>
       <c r="C10" s="40"/>
       <c r="D10" s="21" t="s">
@@ -1852,7 +2042,7 @@
       <c r="F10" s="40"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="41">
         <v>5</v>
       </c>
@@ -1868,9 +2058,11 @@
       <c r="F11" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G11" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="41"/>
       <c r="C12" s="40"/>
       <c r="D12" s="21" t="s">
@@ -1878,9 +2070,9 @@
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="41">
         <v>6</v>
       </c>
@@ -1896,9 +2088,11 @@
       <c r="F13" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G13" s="42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="41"/>
       <c r="C14" s="40"/>
       <c r="D14" s="21" t="s">
@@ -1906,9 +2100,9 @@
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G14" s="43"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="41">
         <v>7</v>
       </c>
@@ -1924,9 +2118,11 @@
       <c r="F15" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G15" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="41"/>
       <c r="C16" s="40"/>
       <c r="D16" s="21" t="s">
@@ -1934,7 +2130,7 @@
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="43"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="41">
@@ -1952,7 +2148,9 @@
       <c r="F17" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="42" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="41"/>
@@ -1962,7 +2160,7 @@
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="41">
@@ -1980,7 +2178,9 @@
       <c r="F19" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="42" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="41"/>
@@ -1990,7 +2190,7 @@
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="41">
@@ -2090,7 +2290,9 @@
       <c r="F28" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="42" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="41"/>
@@ -2100,7 +2302,7 @@
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="23"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="26">
@@ -2136,7 +2338,9 @@
       <c r="F31" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="23"/>
+      <c r="G31" s="44" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="41"/>
@@ -2203,17 +2407,39 @@
       <c r="G36" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
+  <mergeCells count="58">
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="E6:E7"/>
@@ -2230,30 +2456,16 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="143">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -510,7 +510,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정이랑 작성분리</t>
+    <t>미완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤다정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정삭제, 미확인 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가되는지 확인(api하고서 확인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편집, 나의여행리스트연동(추후)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤다정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정은아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최경열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원보연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 TOP,new 하지마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweet alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB Member에 활중 칼럼추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본글 지우면 다 지워지는지,
+삭제 수정 권한, 메인데이터테이블 없어짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +602,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,8 +651,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -762,13 +817,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,43 +983,19 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -913,6 +1007,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -920,6 +1038,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1283,10 +1443,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="44" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1302,8 +1462,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="38"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1317,8 +1477,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
@@ -1327,8 +1487,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -1339,10 +1499,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="40" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1351,88 +1511,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="39"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="39"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="40"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="39"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="39"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="39"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
@@ -1441,10 +1601,10 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C21" s="42"/>
+      <c r="D21" s="40"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
@@ -1453,10 +1613,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="41" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1465,8 +1625,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="36"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
@@ -1477,10 +1637,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="41" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1489,16 +1649,16 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="36"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
@@ -1509,10 +1669,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="41" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1521,16 +1681,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="36"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="36"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
@@ -1541,10 +1701,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="42" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1553,16 +1713,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
@@ -1573,10 +1733,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1585,16 +1745,16 @@
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="37"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="37"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="43"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
@@ -1605,10 +1765,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1619,22 +1779,22 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="37"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="43"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="37"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="43"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="37"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="43"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="12"/>
@@ -1645,10 +1805,10 @@
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="41" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1657,40 +1817,40 @@
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="36"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="36"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="36"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="36"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="36"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
@@ -1704,7 +1864,7 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="40" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1713,18 +1873,18 @@
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="40"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
@@ -1733,10 +1893,10 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="40" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1747,18 +1907,18 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="40" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1767,8 +1927,8 @@
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
@@ -1791,10 +1951,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="40" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1803,8 +1963,8 @@
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="39"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="40"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
@@ -1821,16 +1981,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -1847,6 +1997,16 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1856,27 +2016,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M36"/>
+  <dimension ref="B1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="3.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.19921875" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.69921875" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.09765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="18"/>
-    <col min="9" max="9" width="11.09765625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="18"/>
+    <col min="7" max="7" width="9" style="34"/>
+    <col min="8" max="8" width="27.796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="18"/>
+    <col min="11" max="11" width="11.09765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="18"/>
+    <col min="15" max="15" width="17.296875" style="18" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:13" s="27" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:15" s="27" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
@@ -1892,22 +2056,26 @@
       <c r="F2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="H2" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="K2" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="N2" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="50"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B3" s="34">
+      <c r="O2" s="50"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B3" s="33">
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -1922,389 +2090,465 @@
       <c r="F3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="I3" s="29" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="L3" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" s="48"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B4" s="41">
+      <c r="L3" s="29"/>
+      <c r="N3" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="52">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="51" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="G4" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="41"/>
-      <c r="C5" s="40"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="52"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="23"/>
-      <c r="I5" s="23" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="41">
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="52">
         <v>3</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="51" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="I6" s="23" t="s">
+      <c r="G6" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="52"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="23"/>
-      <c r="I7" s="23" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="41">
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="52">
         <v>4</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="41"/>
-      <c r="C9" s="40"/>
+      <c r="G8" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="52"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="52"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="41">
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="52">
         <v>5</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="51" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="61" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="41"/>
-      <c r="C12" s="40"/>
+      <c r="H11" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="52"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="41">
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="52">
         <v>6</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="51" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="58" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="41"/>
-      <c r="C14" s="40"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" s="52"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="43"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B15" s="41">
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B15" s="52">
         <v>7</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="51" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="55" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="41"/>
-      <c r="C16" s="40"/>
+      <c r="H15" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="41">
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="52">
         <v>8</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="51" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="61" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="41"/>
-      <c r="C18" s="40"/>
+      <c r="H17" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="41">
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="52">
         <v>9</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="51" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="55" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="41"/>
-      <c r="C20" s="40"/>
+      <c r="H19" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="43"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="41">
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="52">
         <v>10</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="51" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="41"/>
-      <c r="C22" s="40"/>
+      <c r="G21" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="52"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="52"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="41"/>
-      <c r="C24" s="40"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="41"/>
-      <c r="C25" s="40"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="41">
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="52">
         <v>11</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="51" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="41"/>
-      <c r="C27" s="40"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="41"/>
-      <c r="C28" s="40"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="52"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="61" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="41"/>
-      <c r="C29" s="40"/>
+      <c r="H28" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="52"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="43"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="26">
         <v>12</v>
       </c>
@@ -2320,51 +2564,63 @@
       <c r="F30" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="41">
+      <c r="G30" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="52">
         <v>13</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="51" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="51" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="56" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="41"/>
-      <c r="C32" s="40"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="35"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="52"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40" t="s">
+      <c r="E32" s="51"/>
+      <c r="F32" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="41"/>
-      <c r="C33" s="40"/>
+      <c r="G32" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="52"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="26">
         <v>14</v>
       </c>
@@ -2376,46 +2632,84 @@
         <v>111</v>
       </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="41">
+      <c r="G34" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="52">
         <v>15</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="51" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="41"/>
-      <c r="C36" s="40"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="52"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="23"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
+  <mergeCells count="67">
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B8:B10"/>
@@ -2432,40 +2726,19 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="22572" windowHeight="9360" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,16 +558,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원본글 지우면 다 지워지는지,
-삭제 수정 권한, 메인데이터테이블 없어짐</t>
+    <t>메인데이터테이블 없어짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,27 +1006,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,47 +1069,17 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,7 +1170,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1206,7 +1204,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1382,22 +1379,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1422,7 +1419,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1434,19 +1431,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="48" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1457,13 +1454,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="44"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1472,391 +1469,391 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="44"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C6" s="49"/>
+      <c r="D6" s="48"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C7" s="49"/>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="49" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="40"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C10" s="45"/>
+      <c r="D10" s="49"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="40"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C11" s="45"/>
+      <c r="D11" s="49"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="40"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C12" s="45"/>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="40"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C13" s="45"/>
+      <c r="D13" s="49"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="40"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C14" s="45"/>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="40"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C15" s="45"/>
+      <c r="D15" s="49"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="40"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C16" s="45"/>
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="40"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="45"/>
+      <c r="D17" s="49"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="40"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="45"/>
+      <c r="D18" s="49"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="40"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="45"/>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="40"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C20" s="45"/>
+      <c r="D20" s="49"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="40"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C21" s="45"/>
+      <c r="D21" s="49"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C24" s="49"/>
+      <c r="D24" s="46"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C27" s="49"/>
+      <c r="D27" s="46"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C28" s="49"/>
+      <c r="D28" s="46"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C31" s="49"/>
+      <c r="D31" s="46"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="49"/>
+      <c r="D32" s="46"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="43"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C39" s="49"/>
+      <c r="D39" s="47"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="43"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C40" s="49"/>
+      <c r="D40" s="47"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="43"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C43" s="49"/>
+      <c r="D43" s="47"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="43"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C44" s="49"/>
+      <c r="D44" s="47"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="43"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C45" s="49"/>
+      <c r="D45" s="47"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="41"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C48" s="49"/>
+      <c r="D48" s="46"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C49" s="49"/>
+      <c r="D49" s="46"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="41"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C50" s="49"/>
+      <c r="D50" s="46"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C51" s="49"/>
+      <c r="D51" s="46"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C52" s="49"/>
+      <c r="D52" s="46"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -1864,73 +1861,73 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="40"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D55" s="49"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="D59" s="49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -1942,35 +1939,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="40"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C64" s="46"/>
+      <c r="D64" s="49"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -1981,6 +1978,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -1997,16 +2004,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2015,32 +2012,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="3.5" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="34"/>
-    <col min="8" max="8" width="27.796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.75" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="18"/>
-    <col min="11" max="11" width="11.09765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="18"/>
-    <col min="15" max="15" width="17.296875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="17.25" style="18" customWidth="1"/>
     <col min="16" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:15" s="27" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:15" s="27" customFormat="1" ht="18" thickBot="1">
       <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
@@ -2056,25 +2053,25 @@
       <c r="F2" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="53"/>
+      <c r="I2" s="40"/>
       <c r="K2" s="37" t="s">
         <v>122</v>
       </c>
       <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="50"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3" s="33">
         <v>1</v>
       </c>
@@ -2097,28 +2094,28 @@
         <v>123</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="52">
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="54">
         <v>2</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="53" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="50" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="23"/>
@@ -2128,15 +2125,15 @@
       </c>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="52"/>
-      <c r="C5" s="51"/>
+    <row r="5" spans="2:15">
+      <c r="B5" s="54"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="46"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="K5" s="23" t="s">
@@ -2144,23 +2141,23 @@
       </c>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="52">
+    <row r="6" spans="2:15">
+      <c r="B6" s="54">
         <v>3</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="53" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="50" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="23"/>
@@ -2170,15 +2167,15 @@
       </c>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="52"/>
-      <c r="C7" s="51"/>
+    <row r="7" spans="2:15">
+      <c r="B7" s="54"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="46"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="K7" s="23" t="s">
@@ -2186,23 +2183,23 @@
       </c>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="52">
+    <row r="8" spans="2:15">
+      <c r="B8" s="54">
         <v>4</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="53" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="50" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="23"/>
@@ -2212,343 +2209,343 @@
       </c>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="52"/>
-      <c r="C9" s="51"/>
+    <row r="9" spans="2:15">
+      <c r="B9" s="54"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="52"/>
-      <c r="C10" s="51"/>
+    <row r="10" spans="2:15">
+      <c r="B10" s="54"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="46"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="52">
+    <row r="11" spans="2:15">
+      <c r="B11" s="54">
         <v>5</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="53" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="50" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="52"/>
-      <c r="C12" s="51"/>
+    <row r="12" spans="2:15">
+      <c r="B12" s="54"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="46"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="52">
+    <row r="13" spans="2:15">
+      <c r="B13" s="54">
         <v>6</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="53" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="61" t="s">
         <v>117</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="52"/>
-      <c r="C14" s="51"/>
+    <row r="14" spans="2:15">
+      <c r="B14" s="54"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="59"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="52">
+    <row r="15" spans="2:15">
+      <c r="B15" s="54">
         <v>7</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="53" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="50" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="52"/>
-      <c r="C16" s="51"/>
+    <row r="16" spans="2:15">
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="46"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="52">
+    <row r="17" spans="2:9">
+      <c r="B17" s="54">
         <v>8</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="53" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="64" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="52"/>
-      <c r="C18" s="51"/>
+    <row r="18" spans="2:9">
+      <c r="B18" s="54"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="46"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="52">
+    <row r="19" spans="2:9">
+      <c r="B19" s="54">
         <v>9</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="53" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="50" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="52"/>
-      <c r="C20" s="51"/>
+    <row r="20" spans="2:9">
+      <c r="B20" s="54"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="46"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="52">
+    <row r="21" spans="2:9">
+      <c r="B21" s="54">
         <v>10</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="53" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="42" t="s">
         <v>131</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="52"/>
-      <c r="C22" s="51"/>
+    <row r="22" spans="2:9">
+      <c r="B22" s="54"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="63"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="23"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="52"/>
-      <c r="C23" s="51"/>
+    <row r="23" spans="2:9">
+      <c r="B23" s="54"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="63"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="23"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="52"/>
-      <c r="C24" s="51"/>
+    <row r="24" spans="2:9">
+      <c r="B24" s="54"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="63"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="52"/>
-      <c r="C25" s="51"/>
+    <row r="25" spans="2:9">
+      <c r="B25" s="54"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="63"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="23"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="52">
+    <row r="26" spans="2:9">
+      <c r="B26" s="54">
         <v>11</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="63"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="23"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="52"/>
-      <c r="C27" s="51"/>
+    <row r="27" spans="2:9">
+      <c r="B27" s="54"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="63"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="44"/>
       <c r="H27" s="23"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="52"/>
-      <c r="C28" s="51"/>
+    <row r="28" spans="2:9">
+      <c r="B28" s="54"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="50" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="52"/>
-      <c r="C29" s="51"/>
+    <row r="29" spans="2:9">
+      <c r="B29" s="54"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="46"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9">
       <c r="B30" s="26">
         <v>12</v>
       </c>
@@ -2564,63 +2561,63 @@
       <c r="F30" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="44" t="s">
         <v>135</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="52">
+    <row r="31" spans="2:9">
+      <c r="B31" s="54">
         <v>13</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="53" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="53" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="42" t="s">
         <v>117</v>
       </c>
       <c r="H31" s="36"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="52"/>
-      <c r="C32" s="51"/>
+    <row r="32" spans="2:9">
+      <c r="B32" s="54"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51" t="s">
+      <c r="E32" s="53"/>
+      <c r="F32" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="50" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="52"/>
-      <c r="C33" s="51"/>
+    <row r="33" spans="2:9">
+      <c r="B33" s="54"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="46"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="23"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9">
       <c r="B34" s="26">
         <v>14</v>
       </c>
@@ -2632,84 +2629,59 @@
         <v>111</v>
       </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="42" t="s">
         <v>135</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="52">
+    <row r="35" spans="2:9">
+      <c r="B35" s="54">
         <v>15</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="53" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="63"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="23"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="52"/>
-      <c r="C36" s="51"/>
+    <row r="36" spans="2:9">
+      <c r="B36" s="54"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="63"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="23"/>
       <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B8:B10"/>
@@ -2726,19 +2698,44 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2747,12 +2744,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="22572" windowHeight="9360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="185">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -559,14 +559,182 @@
   </si>
   <si>
     <t>메인데이터테이블 없어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html 안먹음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summernote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기 버튼 오른쪽으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place holder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기 div로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만의코스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센털라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글작성시 사진이 내용 안먹게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리자말자 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isTop정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기 버튼 오른쪽으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디폴트 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(페이징 or 무한스크롤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진커지는거 없어지게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나오는거 지그재그로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진누르면 모달로 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변관광지 없으면 안보이게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 검색기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인에 태그추가, 검색추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인에 태그추가, 검색추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관리자 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정,탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 페이지 내여행리스트 추가 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 화면 validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제하겠습니까 alert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,65 +1189,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,6 +1338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1204,6 +1373,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1379,22 +1549,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +1589,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1431,19 +1601,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="49" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1454,13 +1624,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1469,391 +1639,391 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="48"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="C6" s="45"/>
+      <c r="D6" s="49"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="48"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="C7" s="45"/>
+      <c r="D7" s="49"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="45" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="49"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="C10" s="47"/>
+      <c r="D10" s="45"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="49"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="C11" s="47"/>
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="49"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="C12" s="47"/>
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="49"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="C13" s="47"/>
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="49"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="C14" s="47"/>
+      <c r="D14" s="45"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="49"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="C15" s="47"/>
+      <c r="D15" s="45"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="49"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="47"/>
+      <c r="D16" s="45"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="49"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="47"/>
+      <c r="D17" s="45"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="49"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="47"/>
+      <c r="D18" s="45"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="49"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19" s="47"/>
+      <c r="D19" s="45"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="49"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C20" s="47"/>
+      <c r="D20" s="45"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="49"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="C21" s="47"/>
+      <c r="D21" s="45"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="45" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="49"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="46"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="45" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="49"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="46"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="49"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="46"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="45" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="49"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="46"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="49"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="46"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="48" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="47"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="C39" s="45"/>
+      <c r="D39" s="48"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="47"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="C40" s="45"/>
+      <c r="D40" s="48"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="48" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="47"/>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="C43" s="45"/>
+      <c r="D43" s="48"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="47"/>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="C44" s="45"/>
+      <c r="D44" s="48"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="47"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="C45" s="45"/>
+      <c r="D45" s="48"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="45" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="49"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="46"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="49"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="46"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="49"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="46"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="49"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="46"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="49"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="46"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -1861,73 +2031,73 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="49"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="D55" s="45"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -1939,11 +2109,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -1951,23 +2121,23 @@
       <c r="C63" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="45" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="46"/>
-      <c r="D64" s="49"/>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="45"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -1978,16 +2148,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -2004,6 +2164,16 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2012,32 +2182,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="3.5" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="34"/>
-    <col min="8" max="8" width="27.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.69921875" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="18"/>
-    <col min="11" max="11" width="11.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.09765625" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="18"/>
-    <col min="15" max="15" width="17.25" style="18" customWidth="1"/>
+    <col min="15" max="15" width="17.19921875" style="18" customWidth="1"/>
     <col min="16" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:15" s="27" customFormat="1" ht="18" thickBot="1">
+    <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:15" s="27" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
@@ -2066,12 +2236,12 @@
       <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="60"/>
-    </row>
-    <row r="3" spans="2:15">
+      <c r="O2" s="55"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="33">
         <v>1</v>
       </c>
@@ -2094,28 +2264,28 @@
         <v>123</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="58"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="54">
+      <c r="O3" s="53"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="63">
         <v>2</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="62" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="59" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="23"/>
@@ -2125,15 +2295,15 @@
       </c>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="54"/>
-      <c r="C5" s="53"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="63"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="K5" s="23" t="s">
@@ -2141,23 +2311,23 @@
       </c>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="54">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="63">
         <v>3</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="62" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="59" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="23"/>
@@ -2167,15 +2337,15 @@
       </c>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="54"/>
-      <c r="C7" s="53"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="63"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="51"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="K7" s="23" t="s">
@@ -2183,23 +2353,23 @@
       </c>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="54">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="63">
         <v>4</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="62" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="59" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="23"/>
@@ -2209,222 +2379,222 @@
       </c>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="54"/>
-      <c r="C9" s="53"/>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="63"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="52"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="54"/>
-      <c r="C10" s="53"/>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="51"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="54">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="63">
         <v>5</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="62" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="59" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="54"/>
-      <c r="C12" s="53"/>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="63"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="51"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="54">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="63">
         <v>6</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="62" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="56" t="s">
         <v>117</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="54"/>
-      <c r="C14" s="53"/>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" s="63"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="54">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B15" s="63">
         <v>7</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="62" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="59" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="54"/>
-      <c r="C16" s="53"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B16" s="63"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="51"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="54">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="63">
         <v>8</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="62" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="61" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="54"/>
-      <c r="C18" s="53"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="63"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="51"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="54">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="63">
         <v>9</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="62" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="59" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="54"/>
-      <c r="C20" s="53"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="63"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="51"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="54">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="63">
         <v>10</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="62" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="62" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -2433,119 +2603,119 @@
       <c r="H21" s="23"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="54"/>
-      <c r="C22" s="53"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="63"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="44"/>
       <c r="H22" s="23"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="54"/>
-      <c r="C23" s="53"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="63"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="44"/>
       <c r="H23" s="23"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="54"/>
-      <c r="C24" s="53"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="63"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="44"/>
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="54"/>
-      <c r="C25" s="53"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="63"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="44"/>
       <c r="H25" s="23"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="54">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="63">
         <v>11</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="62" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="62" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="23"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="54"/>
-      <c r="C27" s="53"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="63"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="44"/>
       <c r="H27" s="23"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="54"/>
-      <c r="C28" s="53"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="63"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="59" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="54"/>
-      <c r="C29" s="53"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="63"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="51"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="26">
         <v>12</v>
       </c>
@@ -2567,17 +2737,17 @@
       <c r="H30" s="23"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="54">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="63">
         <v>13</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="62" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -2589,35 +2759,35 @@
       <c r="H31" s="36"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="54"/>
-      <c r="C32" s="53"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="63"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53" t="s">
+      <c r="E32" s="62"/>
+      <c r="F32" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="G32" s="59" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="54"/>
-      <c r="C33" s="53"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="63"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="51"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="23"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="26">
         <v>14</v>
       </c>
@@ -2635,53 +2805,78 @@
       <c r="H34" s="23"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="54">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="63">
         <v>15</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="62" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="62" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="44"/>
       <c r="H35" s="23"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="54"/>
-      <c r="C36" s="53"/>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="63"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="44"/>
       <c r="H36" s="23"/>
       <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B8:B10"/>
@@ -2698,44 +2893,19 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2744,13 +2914,205 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="22572" windowHeight="9360" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TroubleShooting" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="198">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -727,14 +728,62 @@
   </si>
   <si>
     <t>삭제하겠습니까 alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>trouble shooting</t>
+  </si>
+  <si>
+    <t>임의의 학교 강의 목록을 json타입으로 프로젝트 내 저장 해두고,
+현재 DB에 없는 학교로 가입이 들어올 때마다 json타입을 읽어와 개설강의 DB테이블에 추가</t>
+  </si>
+  <si>
+    <t>글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이욱재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 페이지 &lt;input type="file"&gt;에 value를 줄수가 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈&amp;트러블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상청 api 데이터 받을때 크로스 도메인에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonp를 사용해 해결하려 했으나 못해서 servlet으로 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 삭제시 ORA-02292: integrity constraint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk가 걸려있는 경우 DB 설계시 on delete cascade를 먹이거나 그렇지 않은경우 하위의 DB부터 차근차근제거해야함. 후자의 방법을 사용하여 문제해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,8 +817,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +897,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -1053,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,19 +1268,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,24 +1323,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1255,11 +1364,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1338,7 +1442,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1373,7 +1476,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1549,22 +1651,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1589,7 +1691,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1601,19 +1703,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1624,13 +1726,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1639,391 +1741,391 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="49"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C6" s="49"/>
+      <c r="D6" s="48"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="49"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C7" s="49"/>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="49" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="45"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C10" s="45"/>
+      <c r="D10" s="49"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="45"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C11" s="45"/>
+      <c r="D11" s="49"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="45"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C12" s="45"/>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="45"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C13" s="45"/>
+      <c r="D13" s="49"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="45"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C14" s="45"/>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="45"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C15" s="45"/>
+      <c r="D15" s="49"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="45"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C16" s="45"/>
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="45"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="45"/>
+      <c r="D17" s="49"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="45"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="45"/>
+      <c r="D18" s="49"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="45"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="45"/>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="45"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C20" s="45"/>
+      <c r="D20" s="49"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="45"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C21" s="45"/>
+      <c r="D21" s="49"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="49" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="45"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="46"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="49" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="45"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="46"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="45"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="46"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="49" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="45"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="46"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="45"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="46"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="48"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C39" s="49"/>
+      <c r="D39" s="47"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="48"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C40" s="49"/>
+      <c r="D40" s="47"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="48"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C43" s="49"/>
+      <c r="D43" s="47"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="48"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C44" s="49"/>
+      <c r="D44" s="47"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="48"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C45" s="49"/>
+      <c r="D45" s="47"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="49" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="45"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="46"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="45"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="46"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="45"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="46"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="45"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="46"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="45"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="46"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -2031,73 +2133,73 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="45" t="s">
+      <c r="D54" s="49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="45"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D55" s="49"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="45" t="s">
+      <c r="C57" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="D57" s="49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="45" t="s">
+      <c r="D59" s="49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2109,11 +2211,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -2121,23 +2223,23 @@
       <c r="C63" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="45" t="s">
+      <c r="D63" s="49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="46"/>
-      <c r="D64" s="45"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D64" s="49"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -2148,6 +2250,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -2164,16 +2276,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2182,32 +2284,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="3.5" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="34"/>
-    <col min="8" max="8" width="27.69921875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.75" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="18"/>
-    <col min="11" max="11" width="11.09765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="18"/>
-    <col min="15" max="15" width="17.19921875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="17.25" style="18" customWidth="1"/>
     <col min="16" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:15" s="27" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:15" s="27" customFormat="1" ht="18" thickBot="1">
       <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
@@ -2236,12 +2338,12 @@
       <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="55"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3" s="33">
         <v>1</v>
       </c>
@@ -2264,28 +2366,28 @@
         <v>123</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="53"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="63">
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="54">
         <v>2</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="53" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="50" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="23"/>
@@ -2295,15 +2397,15 @@
       </c>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="63"/>
-      <c r="C5" s="62"/>
+    <row r="5" spans="2:15">
+      <c r="B5" s="54"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="60"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="K5" s="23" t="s">
@@ -2311,23 +2413,23 @@
       </c>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="63">
+    <row r="6" spans="2:15">
+      <c r="B6" s="54">
         <v>3</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="53" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="50" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="23"/>
@@ -2337,15 +2439,15 @@
       </c>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="63"/>
-      <c r="C7" s="62"/>
+    <row r="7" spans="2:15">
+      <c r="B7" s="54"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="60"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="K7" s="23" t="s">
@@ -2353,23 +2455,23 @@
       </c>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="63">
+    <row r="8" spans="2:15">
+      <c r="B8" s="54">
         <v>4</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="53" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="50" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="23"/>
@@ -2379,222 +2481,222 @@
       </c>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="62"/>
+    <row r="9" spans="2:15">
+      <c r="B9" s="54"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="63"/>
-      <c r="C10" s="62"/>
+    <row r="10" spans="2:15">
+      <c r="B10" s="54"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="60"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="63">
+    <row r="11" spans="2:15">
+      <c r="B11" s="54">
         <v>5</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="53" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="50" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="63"/>
-      <c r="C12" s="62"/>
+    <row r="12" spans="2:15">
+      <c r="B12" s="54"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="60"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="63">
+    <row r="13" spans="2:15">
+      <c r="B13" s="54">
         <v>6</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="53" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="61" t="s">
         <v>117</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="63"/>
-      <c r="C14" s="62"/>
+    <row r="14" spans="2:15">
+      <c r="B14" s="54"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="57"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="63">
+    <row r="15" spans="2:15">
+      <c r="B15" s="54">
         <v>7</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="53" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="50" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="63"/>
-      <c r="C16" s="62"/>
+    <row r="16" spans="2:15">
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="60"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="63">
+    <row r="17" spans="2:9">
+      <c r="B17" s="54">
         <v>8</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="53" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="61" t="s">
+      <c r="H17" s="64" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="63"/>
-      <c r="C18" s="62"/>
+    <row r="18" spans="2:9">
+      <c r="B18" s="54"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="60"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="63">
+    <row r="19" spans="2:9">
+      <c r="B19" s="54">
         <v>9</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="53" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="50" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="63"/>
-      <c r="C20" s="62"/>
+    <row r="20" spans="2:9">
+      <c r="B20" s="54"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="60"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="63">
+    <row r="21" spans="2:9">
+      <c r="B21" s="54">
         <v>10</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="53" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="53" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -2603,119 +2705,119 @@
       <c r="H21" s="23"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="63"/>
-      <c r="C22" s="62"/>
+    <row r="22" spans="2:9">
+      <c r="B22" s="54"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="44"/>
       <c r="H22" s="23"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="63"/>
-      <c r="C23" s="62"/>
+    <row r="23" spans="2:9">
+      <c r="B23" s="54"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="44"/>
       <c r="H23" s="23"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="63"/>
-      <c r="C24" s="62"/>
+    <row r="24" spans="2:9">
+      <c r="B24" s="54"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="44"/>
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="63"/>
-      <c r="C25" s="62"/>
+    <row r="25" spans="2:9">
+      <c r="B25" s="54"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="44"/>
       <c r="H25" s="23"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="63">
+    <row r="26" spans="2:9">
+      <c r="B26" s="54">
         <v>11</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="53" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="23"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="63"/>
-      <c r="C27" s="62"/>
+    <row r="27" spans="2:9">
+      <c r="B27" s="54"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="44"/>
       <c r="H27" s="23"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="63"/>
-      <c r="C28" s="62"/>
+    <row r="28" spans="2:9">
+      <c r="B28" s="54"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="50" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="63"/>
-      <c r="C29" s="62"/>
+    <row r="29" spans="2:9">
+      <c r="B29" s="54"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="60"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9">
       <c r="B30" s="26">
         <v>12</v>
       </c>
@@ -2737,17 +2839,17 @@
       <c r="H30" s="23"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="63">
+    <row r="31" spans="2:9">
+      <c r="B31" s="54">
         <v>13</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="53" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="53" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -2759,35 +2861,35 @@
       <c r="H31" s="36"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="63"/>
-      <c r="C32" s="62"/>
+    <row r="32" spans="2:9">
+      <c r="B32" s="54"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62" t="s">
+      <c r="E32" s="53"/>
+      <c r="F32" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="50" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="63"/>
-      <c r="C33" s="62"/>
+    <row r="33" spans="2:9">
+      <c r="B33" s="54"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="60"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="23"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9">
       <c r="B34" s="26">
         <v>14</v>
       </c>
@@ -2805,40 +2907,91 @@
       <c r="H34" s="23"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="63">
+    <row r="35" spans="2:9">
+      <c r="B35" s="54">
         <v>15</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="53" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="53" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="44"/>
       <c r="H35" s="23"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="63"/>
-      <c r="C36" s="62"/>
+    <row r="36" spans="2:9">
+      <c r="B36" s="54"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="44"/>
       <c r="H36" s="23"/>
       <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G6:G7"/>
@@ -2855,57 +3008,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2914,22 +3016,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -2946,7 +3048,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>145</v>
       </c>
@@ -2957,7 +3059,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -2965,15 +3067,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>149</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="65" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -2981,40 +3083,40 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>154</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="65" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+    <row r="10" spans="1:6">
+      <c r="B10" s="65" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+    <row r="11" spans="1:6">
+      <c r="B11" s="65" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -3022,17 +3124,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -3040,50 +3142,50 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>167</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="65" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" s="65" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+    <row r="21" spans="1:2">
+      <c r="B21" s="65" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" s="65" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -3091,7 +3193,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -3099,7 +3201,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -3107,7 +3209,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2">
       <c r="B27" t="s">
         <v>181</v>
       </c>
@@ -3116,4 +3218,170 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="68" customWidth="1"/>
+    <col min="5" max="5" width="70" style="68" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="74.25" customHeight="1">
+      <c r="A2" s="69">
+        <v>43798</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="73">
+        <v>43798</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="69">
+        <v>42848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="69">
+        <v>42849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="69">
+        <v>42850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="69">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="69">
+        <v>42852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="69">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="69">
+        <v>42854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="69">
+        <v>42855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="69">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="69">
+        <v>42857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="69">
+        <v>42858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="69">
+        <v>42859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="69">
+        <v>42860</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="69">
+        <v>42861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="69">
+        <v>42862</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SmartWeb\Team2Final\doc\기타문서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74A29B2-5E05-468E-A24B-067853FE64A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="22575" windowHeight="9360" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="197">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -745,10 +751,6 @@
   <si>
     <t>임의의 학교 강의 목록을 json타입으로 프로젝트 내 저장 해두고,
 현재 DB에 없는 학교로 가입이 들어올 때마다 json타입을 읽어와 개설강의 DB테이블에 추가</t>
-  </si>
-  <si>
-    <t>글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이욱재</t>
@@ -782,8 +784,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,89 +1270,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1364,6 +1366,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1410,7 +1420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1442,9 +1452,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1476,6 +1504,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1651,14 +1697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
@@ -1666,7 +1712,7 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1691,7 +1737,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1703,19 +1749,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="57" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1726,13 +1772,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="48"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1741,391 +1787,391 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="48"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="C6" s="53"/>
+      <c r="D6" s="57"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="48"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="C7" s="53"/>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="49"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="C10" s="55"/>
+      <c r="D10" s="53"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="49"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="C11" s="55"/>
+      <c r="D11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="49"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="C12" s="55"/>
+      <c r="D12" s="53"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="49"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="C13" s="55"/>
+      <c r="D13" s="53"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="49"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="C14" s="55"/>
+      <c r="D14" s="53"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="49"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="C15" s="55"/>
+      <c r="D15" s="53"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="49"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="55"/>
+      <c r="D16" s="53"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="49"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="55"/>
+      <c r="D17" s="53"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="49"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="55"/>
+      <c r="D18" s="53"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="49"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19" s="55"/>
+      <c r="D19" s="53"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="49"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C20" s="55"/>
+      <c r="D20" s="53"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="49"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="C21" s="55"/>
+      <c r="D21" s="53"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="54" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="46"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="46"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="46"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="46"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="46"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="47"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="C39" s="53"/>
+      <c r="D39" s="56"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="47"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="C40" s="53"/>
+      <c r="D40" s="56"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="47"/>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="C43" s="53"/>
+      <c r="D43" s="56"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="47"/>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="C44" s="53"/>
+      <c r="D44" s="56"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="47"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="C45" s="53"/>
+      <c r="D45" s="56"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="46"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="C48" s="53"/>
+      <c r="D48" s="54"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="46"/>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="C49" s="53"/>
+      <c r="D49" s="54"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="46"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="46"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="46"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="C52" s="53"/>
+      <c r="D52" s="54"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -2133,73 +2179,73 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="53" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="49"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="D55" s="53"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="53" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2211,35 +2257,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="49"/>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="C64" s="54"/>
+      <c r="D64" s="53"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -2250,16 +2296,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -2276,6 +2312,16 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2284,14 +2330,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:O36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="3.5" style="32" bestFit="1" customWidth="1"/>
@@ -2308,8 +2354,8 @@
     <col min="16" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:15" s="27" customFormat="1" ht="18" thickBot="1">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" s="27" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
@@ -2338,12 +2384,12 @@
       <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="60"/>
-    </row>
-    <row r="3" spans="2:15">
+      <c r="O2" s="63"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="33">
         <v>1</v>
       </c>
@@ -2366,28 +2412,28 @@
         <v>123</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="58"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="54">
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="71">
         <v>2</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="70" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="67" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="23"/>
@@ -2397,15 +2443,15 @@
       </c>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="54"/>
-      <c r="C5" s="53"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="71"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="K5" s="23" t="s">
@@ -2413,23 +2459,23 @@
       </c>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="54">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="71">
         <v>3</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="70" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="67" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="23"/>
@@ -2439,15 +2485,15 @@
       </c>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="54"/>
-      <c r="C7" s="53"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="71"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="51"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="K7" s="23" t="s">
@@ -2455,23 +2501,23 @@
       </c>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="54">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="71">
         <v>4</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="70" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="67" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="23"/>
@@ -2481,222 +2527,222 @@
       </c>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="54"/>
-      <c r="C9" s="53"/>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="71"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="52"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="54"/>
-      <c r="C10" s="53"/>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="71"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="51"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="54">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="71">
         <v>5</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="70" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="67" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="54"/>
-      <c r="C12" s="53"/>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="71"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="51"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="54">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="71">
         <v>6</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="70" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="64" t="s">
         <v>117</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="54"/>
-      <c r="C14" s="53"/>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="71"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="62"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="54">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="71">
         <v>7</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="70" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="67" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="54"/>
-      <c r="C16" s="53"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="71"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="51"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="54">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="71">
         <v>8</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="70" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="69" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="54"/>
-      <c r="C18" s="53"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="71"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="51"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="54">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="71">
         <v>9</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="70" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="67" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="54"/>
-      <c r="C20" s="53"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="71"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="51"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="54">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="71">
         <v>10</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="70" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="70" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -2705,119 +2751,119 @@
       <c r="H21" s="23"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="54"/>
-      <c r="C22" s="53"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="71"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="44"/>
       <c r="H22" s="23"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="54"/>
-      <c r="C23" s="53"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="71"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="44"/>
       <c r="H23" s="23"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="54"/>
-      <c r="C24" s="53"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="71"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="44"/>
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="54"/>
-      <c r="C25" s="53"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="71"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="44"/>
       <c r="H25" s="23"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="54">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="71">
         <v>11</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="70" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="70" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="23"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="54"/>
-      <c r="C27" s="53"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="71"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="44"/>
       <c r="H27" s="23"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="54"/>
-      <c r="C28" s="53"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="71"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="67" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="54"/>
-      <c r="C29" s="53"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="71"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="51"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="26">
         <v>12</v>
       </c>
@@ -2839,17 +2885,17 @@
       <c r="H30" s="23"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="54">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="71">
         <v>13</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="70" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="70" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -2861,35 +2907,35 @@
       <c r="H31" s="36"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="54"/>
-      <c r="C32" s="53"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="71"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53" t="s">
+      <c r="E32" s="70"/>
+      <c r="F32" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="G32" s="67" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="54"/>
-      <c r="C33" s="53"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="71"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="51"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="23"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
         <v>14</v>
       </c>
@@ -2907,53 +2953,78 @@
       <c r="H34" s="23"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="54">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="71">
         <v>15</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="70" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="70" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="44"/>
       <c r="H35" s="23"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="54"/>
-      <c r="C36" s="53"/>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="71"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="44"/>
       <c r="H36" s="23"/>
       <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B8:B10"/>
@@ -2970,44 +3041,19 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3016,14 +3062,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
@@ -3031,7 +3077,7 @@
     <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3048,7 +3094,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>145</v>
       </c>
@@ -3059,7 +3105,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -3067,15 +3113,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="45" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -3083,40 +3129,40 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="45" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="65" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="45" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="65" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -3124,17 +3170,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -3142,50 +3188,50 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="45" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="65" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="45" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="65" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="45" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="65" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -3193,7 +3239,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -3201,7 +3247,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -3209,7 +3255,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>181</v>
       </c>
@@ -3221,164 +3267,160 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="68" customWidth="1"/>
-    <col min="5" max="5" width="70" style="68" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="67"/>
+    <col min="1" max="1" width="9.75" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="50" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="48" customWidth="1"/>
+    <col min="5" max="5" width="70" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="52" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="74.25" customHeight="1">
-      <c r="A2" s="69">
+    <row r="2" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="73">
         <v>43798</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="D2" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="51" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="73">
-        <v>43798</v>
-      </c>
-      <c r="B3" s="74" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="68" t="s">
+      <c r="E3" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24">
+    </row>
+    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
       <c r="B4" s="74"/>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="68" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="69">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="49">
         <v>42848</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="69">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="49">
         <v>42849</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="69">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="49">
         <v>42850</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="69">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="49">
         <v>42851</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="69">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
         <v>42852</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="69">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
         <v>42853</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="69">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
         <v>42854</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="69">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="49">
         <v>42855</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="69">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="49">
         <v>42856</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="69">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="49">
         <v>42857</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="69">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="49">
         <v>42858</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="69">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="49">
         <v>42859</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="69">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="49">
         <v>42860</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="69">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49">
         <v>42861</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="69">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="49">
         <v>42862</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SmartWeb\Team2Final\doc\기타문서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74A29B2-5E05-468E-A24B-067853FE64A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13716" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="205">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -778,13 +772,45 @@
   </si>
   <si>
     <t>fk가 걸려있는 경우 DB 설계시 on delete cascade를 먹이거나 그렇지 않은경우 하위의 DB부터 차근차근제거해야함. 후자의 방법을 사용하여 문제해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈&amp;트러블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김일겸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON을 못가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수를 하나 더 추가해서 좌표값을 새로 뽑아서 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오맵 핀 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수로 만들어서 좌표를 가져오고 함수를 실행으로 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 이미지가 없는것을 대체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute를 사용해서 없는 사진이 나오면 대체이미지로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1134,7 +1160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1294,19 +1320,37 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1334,30 +1378,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1420,7 +1449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1453,26 +1482,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1505,23 +1517,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1697,22 +1692,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1737,7 +1732,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1749,16 +1744,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="58" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="57" t="s">
@@ -1772,12 +1767,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="57"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1787,391 +1782,391 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="57"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="57"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="58" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="53"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="54"/>
+      <c r="D10" s="58"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="53"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="54"/>
+      <c r="D11" s="58"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="53"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="54"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="53"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="54"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="53"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="54"/>
+      <c r="D14" s="58"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="53"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="54"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="53"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="54"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="53"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="54"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="53"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="54"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="53"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="54"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="53"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="54"/>
+      <c r="D20" s="58"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="53"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="54"/>
+      <c r="D21" s="58"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="58"/>
+      <c r="D24" s="55"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="58"/>
+      <c r="D27" s="55"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="58"/>
+      <c r="D28" s="55"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="58"/>
+      <c r="D31" s="55"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="58"/>
+      <c r="D32" s="55"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="58" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="53"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="56"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="53"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="56"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D42" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="53"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="56"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="53"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="56"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="53"/>
+      <c r="C45" s="58"/>
       <c r="D45" s="56"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="54"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="58"/>
+      <c r="D48" s="55"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="54"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="58"/>
+      <c r="D49" s="55"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="54"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="58"/>
+      <c r="D50" s="55"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="54"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="58"/>
+      <c r="D51" s="55"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="54"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="58"/>
+      <c r="D52" s="55"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -2179,73 +2174,73 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="53"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="58"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="53" t="s">
+      <c r="D57" s="58" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D59" s="58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2257,35 +2252,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="53"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="55"/>
+      <c r="D64" s="58"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -2296,6 +2291,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -2312,16 +2317,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2330,32 +2325,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="3.5" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="34"/>
-    <col min="8" max="8" width="27.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.69921875" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="18"/>
-    <col min="11" max="11" width="11.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.09765625" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="18"/>
-    <col min="15" max="15" width="17.25" style="18" customWidth="1"/>
+    <col min="15" max="15" width="17.19921875" style="18" customWidth="1"/>
     <col min="16" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" s="27" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" s="27" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
@@ -2384,12 +2379,12 @@
       <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="N2" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="63"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="69"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="33">
         <v>1</v>
       </c>
@@ -2412,28 +2407,28 @@
         <v>123</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="61"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="71">
+      <c r="O3" s="67"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="63">
         <v>2</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="62" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="59" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="23"/>
@@ -2443,15 +2438,15 @@
       </c>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="70"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="63"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="68"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="K5" s="23" t="s">
@@ -2459,23 +2454,23 @@
       </c>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="71">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="63">
         <v>3</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="62" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="59" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="23"/>
@@ -2485,15 +2480,15 @@
       </c>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="71"/>
-      <c r="C7" s="70"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="63"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="68"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="K7" s="23" t="s">
@@ -2501,23 +2496,23 @@
       </c>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="71">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="63">
         <v>4</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="62" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="59" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="23"/>
@@ -2527,222 +2522,222 @@
       </c>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
-      <c r="C9" s="70"/>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="63"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="72"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
-      <c r="C10" s="70"/>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="68"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="71">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="63">
         <v>5</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="62" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="59" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="71"/>
-      <c r="C12" s="70"/>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="63"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="68"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="71">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="63">
         <v>6</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="62" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="70" t="s">
         <v>117</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
-      <c r="C14" s="70"/>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" s="63"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="65"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="71">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B15" s="63">
         <v>7</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="62" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="59" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="71"/>
-      <c r="C16" s="70"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B16" s="63"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="68"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="71">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="63">
         <v>8</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="62" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="69" t="s">
+      <c r="H17" s="73" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="71"/>
-      <c r="C18" s="70"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="63"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="68"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="71">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="63">
         <v>9</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="62" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="59" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="71"/>
-      <c r="C20" s="70"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="63"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="68"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="71">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="63">
         <v>10</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="62" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="62" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -2751,119 +2746,119 @@
       <c r="H21" s="23"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="71"/>
-      <c r="C22" s="70"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="63"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="44"/>
       <c r="H22" s="23"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="71"/>
-      <c r="C23" s="70"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="63"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="44"/>
       <c r="H23" s="23"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="71"/>
-      <c r="C24" s="70"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="63"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="44"/>
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="71"/>
-      <c r="C25" s="70"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="63"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="44"/>
       <c r="H25" s="23"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="71">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="63">
         <v>11</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="62" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="62" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="23"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="71"/>
-      <c r="C27" s="70"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="63"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="44"/>
       <c r="H27" s="23"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="71"/>
-      <c r="C28" s="70"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="63"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="70" t="s">
+      <c r="F28" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="59" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="71"/>
-      <c r="C29" s="70"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="63"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="68"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="26">
         <v>12</v>
       </c>
@@ -2885,17 +2880,17 @@
       <c r="H30" s="23"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="71">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="63">
         <v>13</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="62" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -2907,35 +2902,35 @@
       <c r="H31" s="36"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="71"/>
-      <c r="C32" s="70"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="63"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70" t="s">
+      <c r="E32" s="62"/>
+      <c r="F32" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="G32" s="59" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="71"/>
-      <c r="C33" s="70"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="63"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="68"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="23"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="26">
         <v>14</v>
       </c>
@@ -2953,40 +2948,91 @@
       <c r="H34" s="23"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="71">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="63">
         <v>15</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="62" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="62" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="44"/>
       <c r="H35" s="23"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="71"/>
-      <c r="C36" s="70"/>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="63"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="44"/>
       <c r="H36" s="23"/>
       <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G6:G7"/>
@@ -3003,57 +3049,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3062,22 +3057,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3094,7 +3089,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>145</v>
       </c>
@@ -3105,7 +3100,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -3113,7 +3108,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -3121,7 +3116,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -3129,17 +3124,17 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -3147,22 +3142,22 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="45" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -3170,17 +3165,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -3188,17 +3183,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -3206,32 +3201,32 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B19" s="45" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B21" s="45" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B23" s="45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -3239,7 +3234,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -3247,7 +3242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -3255,7 +3250,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>181</v>
       </c>
@@ -3267,24 +3262,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="50" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="48" customWidth="1"/>
     <col min="5" max="5" width="70" style="48" customWidth="1"/>
     <col min="6" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>185</v>
       </c>
@@ -3299,8 +3294,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73">
+    <row r="2" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="75">
         <v>43798</v>
       </c>
       <c r="B2" s="74" t="s">
@@ -3316,8 +3311,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="75"/>
       <c r="B3" s="74"/>
       <c r="C3" s="50" t="s">
         <v>190</v>
@@ -3329,8 +3324,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
+    <row r="4" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A4" s="75"/>
       <c r="B4" s="74"/>
       <c r="C4" s="50" t="s">
         <v>108</v>
@@ -3342,85 +3337,125 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="49">
-        <v>42848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="75">
+        <v>43798</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="75"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="75"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="49">
         <v>42849</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="49">
+    <row r="9" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
         <v>42850</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="49">
+    <row r="10" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
         <v>42851</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
+    <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
         <v>42852</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="49">
+    <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A12" s="49">
         <v>42853</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
+    <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A13" s="49">
         <v>42854</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="49">
+    <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A14" s="49">
         <v>42855</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="49">
+    <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A15" s="49">
         <v>42856</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="49">
+    <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A16" s="49">
         <v>42857</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
+    <row r="17" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A17" s="49">
         <v>42858</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="49">
+    <row r="18" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A18" s="49">
         <v>42859</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49">
+    <row r="19" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A19" s="49">
         <v>42860</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49">
+    <row r="20" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A20" s="49">
         <v>42861</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49">
+    <row r="21" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+      <c r="A21" s="49">
         <v>42862</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SmartWeb\Team2Final\doc\기타문서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CED1390-725F-4A1E-992D-EB54A1191F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13716" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23055" windowHeight="14340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="206">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -755,10 +761,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이슈&amp;트러블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기상청 api 데이터 받을때 크로스 도메인에러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,10 +777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이슈&amp;트러블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김일겸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -804,13 +802,25 @@
   </si>
   <si>
     <t>attribute를 사용해서 없는 사진이 나오면 대체이미지로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트러블&amp;이슈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비동기 함수 순서 못잡음 proimise 사용 실패 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div를 여러 개 만들어 순서에 맞게 id를 만들어 해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1323,65 +1333,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1449,7 +1459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1482,9 +1492,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1517,6 +1544,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1692,22 +1736,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1732,7 +1776,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1744,19 +1788,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="58" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1767,13 +1811,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1782,391 +1826,391 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="57"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C6" s="54"/>
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="57"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C7" s="54"/>
+      <c r="D7" s="58"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="54" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="58"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C10" s="56"/>
+      <c r="D10" s="54"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="58"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C11" s="56"/>
+      <c r="D11" s="54"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="58"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C12" s="56"/>
+      <c r="D12" s="54"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="58"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C13" s="56"/>
+      <c r="D13" s="54"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="58"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C14" s="56"/>
+      <c r="D14" s="54"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="58"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C15" s="56"/>
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="58"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C16" s="56"/>
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="58"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="56"/>
+      <c r="D17" s="54"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="58"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="56"/>
+      <c r="D18" s="54"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="58"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="56"/>
+      <c r="D19" s="54"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="58"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C20" s="56"/>
+      <c r="D20" s="54"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="58"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C21" s="56"/>
+      <c r="D21" s="54"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="54" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="58"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="55"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="54" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="58"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="55"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="58"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="55"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="54" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="58"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="55"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="58"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="55"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="56"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C39" s="54"/>
+      <c r="D39" s="57"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="56"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C40" s="54"/>
+      <c r="D40" s="57"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="56"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C43" s="54"/>
+      <c r="D43" s="57"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="56"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C44" s="54"/>
+      <c r="D44" s="57"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="56"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C45" s="54"/>
+      <c r="D45" s="57"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="54" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="58"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="55"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="58"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="55"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="58"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="55"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="58"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="55"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="58"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="55"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -2174,73 +2218,73 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="58"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D55" s="54"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="D59" s="54" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2252,11 +2296,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -2264,23 +2308,23 @@
       <c r="C63" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="D63" s="54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="55"/>
-      <c r="D64" s="58"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D64" s="54"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -2291,16 +2335,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -2317,6 +2351,16 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2325,32 +2369,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:O36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="3.5" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="34"/>
-    <col min="8" max="8" width="27.69921875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.75" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="18"/>
-    <col min="11" max="11" width="11.09765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="18"/>
-    <col min="15" max="15" width="17.19921875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="17.25" style="18" customWidth="1"/>
     <col min="16" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" s="27" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" s="27" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
@@ -2379,12 +2423,12 @@
       <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="69"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O2" s="64"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="33">
         <v>1</v>
       </c>
@@ -2407,28 +2451,28 @@
         <v>123</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="67"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="63">
+      <c r="O3" s="62"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="72">
         <v>2</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="71" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="68" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="23"/>
@@ -2438,15 +2482,15 @@
       </c>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="63"/>
-      <c r="C5" s="62"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="72"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="60"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="K5" s="23" t="s">
@@ -2454,23 +2498,23 @@
       </c>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="63">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="72">
         <v>3</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="71" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="68" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="23"/>
@@ -2480,15 +2524,15 @@
       </c>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="63"/>
-      <c r="C7" s="62"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="72"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="60"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="K7" s="23" t="s">
@@ -2496,23 +2540,23 @@
       </c>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="63">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="72">
         <v>4</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="71" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="68" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="23"/>
@@ -2522,222 +2566,222 @@
       </c>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="62"/>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="72"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="61"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="73"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="63"/>
-      <c r="C10" s="62"/>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="72"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="60"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="63">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="72">
         <v>5</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="71" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="68" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="63"/>
-      <c r="C12" s="62"/>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="72"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="60"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="63">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="72">
         <v>6</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="71" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="65" t="s">
         <v>117</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="63"/>
-      <c r="C14" s="62"/>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="72"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="63">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="72">
         <v>7</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="71" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="68" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="63"/>
-      <c r="C16" s="62"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="72"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="60"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="63">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="72">
         <v>8</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="71" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="70" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="63"/>
-      <c r="C18" s="62"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="72"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="60"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="63">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="72">
         <v>9</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="71" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="68" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="63"/>
-      <c r="C20" s="62"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="72"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="60"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="63">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="72">
         <v>10</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="71" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="71" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -2746,119 +2790,119 @@
       <c r="H21" s="23"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="63"/>
-      <c r="C22" s="62"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="72"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="44"/>
       <c r="H22" s="23"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="63"/>
-      <c r="C23" s="62"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="72"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="44"/>
       <c r="H23" s="23"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="63"/>
-      <c r="C24" s="62"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="72"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="44"/>
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="63"/>
-      <c r="C25" s="62"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="72"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
       <c r="G25" s="44"/>
       <c r="H25" s="23"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="63">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="72">
         <v>11</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="71" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="71" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="23"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="63"/>
-      <c r="C27" s="62"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="72"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="44"/>
       <c r="H27" s="23"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="63"/>
-      <c r="C28" s="62"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="72"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="68" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="63"/>
-      <c r="C29" s="62"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="72"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="60"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="26">
         <v>12</v>
       </c>
@@ -2880,17 +2924,17 @@
       <c r="H30" s="23"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="63">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="72">
         <v>13</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="71" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="71" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -2902,35 +2946,35 @@
       <c r="H31" s="36"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="63"/>
-      <c r="C32" s="62"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="72"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62" t="s">
+      <c r="E32" s="71"/>
+      <c r="F32" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="68" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="63"/>
-      <c r="C33" s="62"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="72"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="60"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="23"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="26">
         <v>14</v>
       </c>
@@ -2948,53 +2992,78 @@
       <c r="H34" s="23"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="63">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="72">
         <v>15</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="71" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="71" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="44"/>
       <c r="H35" s="23"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="63"/>
-      <c r="C36" s="62"/>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="72"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
       <c r="G36" s="44"/>
       <c r="H36" s="23"/>
       <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B8:B10"/>
@@ -3011,44 +3080,19 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3057,22 +3101,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3089,7 +3133,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>145</v>
       </c>
@@ -3100,7 +3144,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -3108,7 +3152,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -3116,7 +3160,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -3124,17 +3168,17 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -3142,22 +3186,22 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="45" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -3165,17 +3209,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -3183,17 +3227,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -3201,32 +3245,32 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" s="45" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="45" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -3234,7 +3278,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -3242,7 +3286,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -3250,7 +3294,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>181</v>
       </c>
@@ -3262,24 +3306,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="50" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="48" customWidth="1"/>
     <col min="5" max="5" width="70" style="48" customWidth="1"/>
     <col min="6" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>185</v>
       </c>
@@ -3294,12 +3338,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="75">
         <v>43798</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>190</v>
@@ -3311,141 +3355,153 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="75"/>
       <c r="B3" s="74"/>
       <c r="C3" s="50" t="s">
         <v>190</v>
       </c>
       <c r="D3" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="75"/>
       <c r="B4" s="74"/>
       <c r="C4" s="50" t="s">
         <v>108</v>
       </c>
       <c r="D4" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="75">
         <v>43798</v>
       </c>
       <c r="B5" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="E5" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="75"/>
       <c r="B6" s="74"/>
       <c r="C6" s="53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="75"/>
       <c r="B7" s="74"/>
       <c r="C7" s="53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D7" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="49">
+        <v>43797</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="C8" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="49">
-        <v>42849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="E8" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="49">
         <v>42850</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="49">
         <v>42851</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="49">
         <v>42852</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="49">
         <v>42853</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="49">
         <v>42854</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="49">
         <v>42855</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="49">
         <v>42856</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="49">
         <v>42857</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="49">
         <v>42858</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="49">
         <v>42859</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="49">
         <v>42860</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="49">
         <v>42861</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="49">
         <v>42862</v>
       </c>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SmartWeb\Team2Final\doc\기타문서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CED1390-725F-4A1E-992D-EB54A1191F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="23055" windowHeight="14340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23052" windowHeight="13176" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="210">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -814,13 +808,29 @@
   </si>
   <si>
     <t>div를 여러 개 만들어 순서에 맞게 id를 만들어 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트러블&amp;이슈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이욱재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 api 데이터 못받아옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달이 바뀌면서 day값이 한자리 수로 바뀌어서 요청주소가 잘못됨 -&gt; 10보다 작은경우 앞에 0을 붙임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1333,19 +1343,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1373,25 +1398,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1459,7 +1469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1492,26 +1502,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1544,23 +1537,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1736,22 +1712,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1776,7 +1752,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1788,19 +1764,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1811,13 +1787,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1826,391 +1802,391 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="58"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="58"/>
+      <c r="D6" s="57"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="58"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="58"/>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="58" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="54"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="54"/>
+      <c r="D10" s="58"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="54"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="54"/>
+      <c r="D11" s="58"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="54"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="54"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="54"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="54"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="54"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="54"/>
+      <c r="D14" s="58"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="54"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="54"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="54"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="54"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="54"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="54"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="54"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="54"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="54"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="54"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="54"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="54"/>
+      <c r="D20" s="58"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="54"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="54"/>
+      <c r="D21" s="58"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="58" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="54"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="55"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="58" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="54"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="55"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="54"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="55"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="58" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="54"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="55"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="54"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="55"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="57"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="58"/>
+      <c r="D39" s="56"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="57"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="58"/>
+      <c r="D40" s="56"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="57"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="58"/>
+      <c r="D43" s="56"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="57"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="58"/>
+      <c r="D44" s="56"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="57"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="58"/>
+      <c r="D45" s="56"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="58" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="54"/>
+      <c r="C48" s="58"/>
       <c r="D48" s="55"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="54"/>
+      <c r="C49" s="58"/>
       <c r="D49" s="55"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="54"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="55"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="54"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="55"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="54"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="55"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -2218,73 +2194,73 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="58"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" s="58" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2296,11 +2272,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -2308,23 +2284,23 @@
       <c r="C63" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" s="58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="55"/>
-      <c r="D64" s="54"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="58"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -2335,6 +2311,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -2351,16 +2337,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2369,32 +2345,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="3.5" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="34"/>
-    <col min="8" max="8" width="27.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.69921875" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="18"/>
-    <col min="11" max="11" width="11.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.09765625" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="18"/>
-    <col min="15" max="15" width="17.25" style="18" customWidth="1"/>
+    <col min="15" max="15" width="17.19921875" style="18" customWidth="1"/>
     <col min="16" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" s="27" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" s="27" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
@@ -2423,12 +2399,12 @@
       <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="64"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="69"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="33">
         <v>1</v>
       </c>
@@ -2451,28 +2427,28 @@
         <v>123</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="62"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="72">
+      <c r="O3" s="67"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="63">
         <v>2</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="62" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="59" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="23"/>
@@ -2482,15 +2458,15 @@
       </c>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="72"/>
-      <c r="C5" s="71"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="63"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="69"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="K5" s="23" t="s">
@@ -2498,23 +2474,23 @@
       </c>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="72">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="63">
         <v>3</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="62" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="59" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="23"/>
@@ -2524,15 +2500,15 @@
       </c>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="72"/>
-      <c r="C7" s="71"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="63"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="69"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="K7" s="23" t="s">
@@ -2540,23 +2516,23 @@
       </c>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="72">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="63">
         <v>4</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="62" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="59" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="23"/>
@@ -2566,222 +2542,222 @@
       </c>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="72"/>
-      <c r="C9" s="71"/>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="63"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="73"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="72"/>
-      <c r="C10" s="71"/>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="72">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="63">
         <v>5</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="62" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="59" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="72"/>
-      <c r="C12" s="71"/>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="63"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="69"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="72">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="63">
         <v>6</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="62" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="70" t="s">
         <v>117</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="72"/>
-      <c r="C14" s="71"/>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" s="63"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="66"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="72">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B15" s="63">
         <v>7</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="62" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="59" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="72"/>
-      <c r="C16" s="71"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B16" s="63"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="69"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="72">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="63">
         <v>8</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="62" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="73" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="72"/>
-      <c r="C18" s="71"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="63"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="69"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="72">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="63">
         <v>9</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="62" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="59" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="72"/>
-      <c r="C20" s="71"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="63"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="69"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="72">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="63">
         <v>10</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="62" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="62" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -2790,119 +2766,119 @@
       <c r="H21" s="23"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
-      <c r="C22" s="71"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="63"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="44"/>
       <c r="H22" s="23"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="72"/>
-      <c r="C23" s="71"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="63"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="44"/>
       <c r="H23" s="23"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="72"/>
-      <c r="C24" s="71"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="63"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="44"/>
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
-      <c r="C25" s="71"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="63"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="44"/>
       <c r="H25" s="23"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="72">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="63">
         <v>11</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="62" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="62" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="23"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="72"/>
-      <c r="C27" s="71"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="63"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="44"/>
       <c r="H27" s="23"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="72"/>
-      <c r="C28" s="71"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="63"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="59" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
-      <c r="C29" s="71"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="63"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="69"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="26">
         <v>12</v>
       </c>
@@ -2924,17 +2900,17 @@
       <c r="H30" s="23"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="72">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="63">
         <v>13</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="62" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -2946,35 +2922,35 @@
       <c r="H31" s="36"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
-      <c r="C32" s="71"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="63"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71" t="s">
+      <c r="E32" s="62"/>
+      <c r="F32" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="59" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="72"/>
-      <c r="C33" s="71"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="63"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="69"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="23"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="26">
         <v>14</v>
       </c>
@@ -2992,40 +2968,91 @@
       <c r="H34" s="23"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="72">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="63">
         <v>15</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="62" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="62" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="44"/>
       <c r="H35" s="23"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="72"/>
-      <c r="C36" s="71"/>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="63"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="44"/>
       <c r="H36" s="23"/>
       <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G6:G7"/>
@@ -3042,57 +3069,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3101,22 +3077,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3133,7 +3109,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>145</v>
       </c>
@@ -3144,7 +3120,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -3152,7 +3128,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -3160,7 +3136,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -3168,17 +3144,17 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -3186,22 +3162,22 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="45" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -3209,17 +3185,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -3227,17 +3203,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -3245,32 +3221,32 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B19" s="45" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B21" s="45" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B23" s="45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -3278,7 +3254,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -3286,7 +3262,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -3294,7 +3270,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>181</v>
       </c>
@@ -3306,24 +3282,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="50" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="48" customWidth="1"/>
     <col min="5" max="5" width="70" style="48" customWidth="1"/>
     <col min="6" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>185</v>
       </c>
@@ -3338,7 +3314,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="75">
         <v>43798</v>
       </c>
@@ -3355,7 +3331,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="75"/>
       <c r="B3" s="74"/>
       <c r="C3" s="50" t="s">
@@ -3368,7 +3344,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A4" s="75"/>
       <c r="B4" s="74"/>
       <c r="C4" s="50" t="s">
@@ -3381,7 +3357,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="75">
         <v>43798</v>
       </c>
@@ -3398,7 +3374,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="75"/>
       <c r="B6" s="74"/>
       <c r="C6" s="53" t="s">
@@ -3411,7 +3387,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="75"/>
       <c r="B7" s="74"/>
       <c r="C7" s="53" t="s">
@@ -3424,7 +3400,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="49">
         <v>43797</v>
       </c>
@@ -3441,67 +3417,79 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="49">
-        <v>42850</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43800</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12" x14ac:dyDescent="0.3">
       <c r="A10" s="49">
         <v>42851</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.3">
       <c r="A11" s="49">
         <v>42852</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.3">
       <c r="A12" s="49">
         <v>42853</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.3">
       <c r="A13" s="49">
         <v>42854</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="49">
         <v>42855</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.3">
       <c r="A15" s="49">
         <v>42856</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="49">
         <v>42857</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="49">
         <v>42858</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="12" x14ac:dyDescent="0.3">
       <c r="A18" s="49">
         <v>42859</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="12" x14ac:dyDescent="0.3">
       <c r="A19" s="49">
         <v>42860</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="12" x14ac:dyDescent="0.3">
       <c r="A20" s="49">
         <v>42861</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="12" x14ac:dyDescent="0.3">
       <c r="A21" s="49">
         <v>42862</v>
       </c>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="213">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -824,6 +824,18 @@
   </si>
   <si>
     <t>달이 바뀌면서 day값이 한자리 수로 바뀌어서 요청주소가 잘못됨 -&gt; 10보다 작은경우 앞에 0을 붙임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이욱재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 암호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화 코드작업 완료했으나 변경시 웹의 관리자 기능에 대한 수정이 이루어져야해서 포기-&gt; 암호화를 상정하고 디자인 해야한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,65 +1355,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1773,10 +1785,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="58" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1792,8 +1804,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1807,8 +1819,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
@@ -1817,8 +1829,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="57"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -1829,10 +1841,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="54" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1841,88 +1853,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="58"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="54"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="54"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="58"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="58"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="54"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="54"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
@@ -1931,8 +1943,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1943,7 +1955,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="54" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="55" t="s">
@@ -1955,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="58"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="55"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1967,7 +1979,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="54" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="55" t="s">
@@ -1979,7 +1991,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="58"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="55"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1987,7 +1999,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="58"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="55"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1999,7 +2011,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="54" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="55" t="s">
@@ -2011,7 +2023,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="58"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="55"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -2019,7 +2031,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="58"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="55"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2031,10 +2043,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="56" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2043,16 +2055,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
@@ -2063,10 +2075,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="57" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2075,16 +2087,16 @@
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="56"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="57"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="56"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="57"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
@@ -2095,10 +2107,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="57" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2109,22 +2121,22 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="56"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="57"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="56"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="57"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="56"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="57"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="12"/>
@@ -2135,7 +2147,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="54" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="55" t="s">
@@ -2147,7 +2159,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="58"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="55"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -2155,7 +2167,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="58"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="55"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -2163,7 +2175,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="58"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="55"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -2171,7 +2183,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="58"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="55"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -2179,7 +2191,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="58"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="55"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -2194,7 +2206,7 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="54" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2203,18 +2215,18 @@
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="58"/>
+      <c r="D55" s="54"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
@@ -2223,10 +2235,10 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="54" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2237,18 +2249,18 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="D59" s="54" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2257,8 +2269,8 @@
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
@@ -2284,7 +2296,7 @@
       <c r="C63" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="D63" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2294,7 +2306,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="55"/>
-      <c r="D64" s="58"/>
+      <c r="D64" s="54"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
@@ -2311,16 +2323,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -2337,6 +2339,16 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2399,10 +2411,10 @@
       <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="64"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="33">
@@ -2427,28 +2439,28 @@
         <v>123</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="67"/>
+      <c r="O3" s="62"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="63">
+      <c r="B4" s="72">
         <v>2</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="71" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="68" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="23"/>
@@ -2459,14 +2471,14 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="63"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="60"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="K5" s="23" t="s">
@@ -2475,22 +2487,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="63">
+      <c r="B6" s="72">
         <v>3</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="71" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="68" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="23"/>
@@ -2501,14 +2513,14 @@
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="63"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="60"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="K7" s="23" t="s">
@@ -2517,22 +2529,22 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="63">
+      <c r="B8" s="72">
         <v>4</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="71" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="68" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="23"/>
@@ -2543,221 +2555,221 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="61"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="73"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="63"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="60"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="63">
+      <c r="B11" s="72">
         <v>5</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="71" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="68" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="63"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="60"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="63">
+      <c r="B13" s="72">
         <v>6</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="71" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="65" t="s">
         <v>117</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="63"/>
-      <c r="C14" s="62"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="63">
+      <c r="B15" s="72">
         <v>7</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="71" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="68" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="63"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="60"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="63">
+      <c r="B17" s="72">
         <v>8</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="71" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="70" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="35"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="63"/>
-      <c r="C18" s="62"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="60"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="35"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="63">
+      <c r="B19" s="72">
         <v>9</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="71" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="68" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="35"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="63"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="60"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="35"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="63">
+      <c r="B21" s="72">
         <v>10</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="71" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="71" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -2767,67 +2779,67 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="63"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="44"/>
       <c r="H22" s="23"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="63"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="44"/>
       <c r="H23" s="23"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="63"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="44"/>
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="63"/>
-      <c r="C25" s="62"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
       <c r="G25" s="44"/>
       <c r="H25" s="23"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="63">
+      <c r="B26" s="72">
         <v>11</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="71" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="71" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="44"/>
@@ -2835,47 +2847,47 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="63"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="44"/>
       <c r="H27" s="23"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="63"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="68" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="35"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="63"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="60"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="35"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
@@ -2901,16 +2913,16 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="63">
+      <c r="B31" s="72">
         <v>13</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="71" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="71" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -2923,30 +2935,30 @@
       <c r="I31" s="35"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="63"/>
-      <c r="C32" s="62"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62" t="s">
+      <c r="E32" s="71"/>
+      <c r="F32" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="68" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="63"/>
-      <c r="C33" s="62"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="60"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="23"/>
       <c r="I33" s="1"/>
     </row>
@@ -2969,19 +2981,19 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="63">
+      <c r="B35" s="72">
         <v>15</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="71" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="71" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="44"/>
@@ -2989,32 +3001,57 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="63"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
       <c r="G36" s="44"/>
       <c r="H36" s="23"/>
       <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B8:B10"/>
@@ -3031,44 +3068,19 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3286,7 +3298,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -3299,7 +3311,7 @@
     <col min="6" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="46" t="s">
         <v>185</v>
       </c>
@@ -3358,9 +3370,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="75">
-        <v>43798</v>
-      </c>
+      <c r="A5" s="75"/>
       <c r="B5" s="74" t="s">
         <v>203</v>
       </c>
@@ -3418,10 +3428,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="49">
+      <c r="A9" s="75">
         <v>43800</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="74" t="s">
         <v>206</v>
       </c>
       <c r="C9" s="50" t="s">
@@ -3434,12 +3444,20 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A10" s="49">
-        <v>42851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A10" s="75"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="49">
         <v>42852</v>
       </c>
@@ -3495,11 +3513,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="216">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -836,6 +836,18 @@
   </si>
   <si>
     <t>암호화 코드작업 완료했으나 변경시 웹의 관리자 기능에 대한 수정이 이루어져야해서 포기-&gt; 암호화를 상정하고 디자인 해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이욱재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input type="submit" 을 button으로 변경하고 onclick시 validation 확인후 결과에 따라 submit or alert하도록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1355,19 +1367,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,25 +1422,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1785,10 +1797,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1804,8 +1816,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1819,8 +1831,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
@@ -1829,8 +1841,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -1841,10 +1853,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="58" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1853,88 +1865,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="58"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="58"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="58"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="58"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
@@ -1943,8 +1955,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="58"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1955,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="58" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="55" t="s">
@@ -1967,7 +1979,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="54"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="55"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1979,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="58" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="55" t="s">
@@ -1991,7 +2003,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="54"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="55"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1999,7 +2011,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="54"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="55"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -2011,7 +2023,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="58" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="55" t="s">
@@ -2023,7 +2035,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="54"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="55"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -2031,7 +2043,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="54"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="55"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2043,10 +2055,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="54" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2055,16 +2067,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
@@ -2075,10 +2087,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="56" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2087,16 +2099,16 @@
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="56"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="56"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
@@ -2107,10 +2119,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="56" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2121,22 +2133,22 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="56"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="56"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="56"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="12"/>
@@ -2147,7 +2159,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="58" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="55" t="s">
@@ -2159,7 +2171,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="54"/>
+      <c r="C48" s="58"/>
       <c r="D48" s="55"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -2167,7 +2179,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="54"/>
+      <c r="C49" s="58"/>
       <c r="D49" s="55"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -2175,7 +2187,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="54"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="55"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -2183,7 +2195,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="54"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="55"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -2191,7 +2203,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="54"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="55"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -2206,7 +2218,7 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="58" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2215,18 +2227,18 @@
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="54"/>
+      <c r="D55" s="58"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
@@ -2235,10 +2247,10 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" s="58" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2249,18 +2261,18 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="58" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2269,8 +2281,8 @@
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
@@ -2296,7 +2308,7 @@
       <c r="C63" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" s="58" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2306,7 +2318,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="55"/>
-      <c r="D64" s="54"/>
+      <c r="D64" s="58"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
@@ -2323,6 +2335,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -2339,16 +2361,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2411,10 +2423,10 @@
       <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="64"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="33">
@@ -2439,28 +2451,28 @@
         <v>123</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="62"/>
+      <c r="O3" s="67"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="72">
+      <c r="B4" s="63">
         <v>2</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="62" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="59" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="23"/>
@@ -2471,14 +2483,14 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="72"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="69"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="K5" s="23" t="s">
@@ -2487,22 +2499,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="72">
+      <c r="B6" s="63">
         <v>3</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="62" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="59" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="23"/>
@@ -2513,14 +2525,14 @@
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="72"/>
-      <c r="C7" s="71"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="69"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="K7" s="23" t="s">
@@ -2529,22 +2541,22 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="72">
+      <c r="B8" s="63">
         <v>4</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="62" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="59" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="23"/>
@@ -2555,221 +2567,221 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="72"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="73"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="72"/>
-      <c r="C10" s="71"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="72">
+      <c r="B11" s="63">
         <v>5</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="62" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="59" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="72"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="69"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="72">
+      <c r="B13" s="63">
         <v>6</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="62" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="70" t="s">
         <v>117</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="72"/>
-      <c r="C14" s="71"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="66"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="72">
+      <c r="B15" s="63">
         <v>7</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="62" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="59" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="72"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="69"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="72">
+      <c r="B17" s="63">
         <v>8</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="62" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="73" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="35"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="72"/>
-      <c r="C18" s="71"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="69"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="35"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="72">
+      <c r="B19" s="63">
         <v>9</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="62" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="59" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="35"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="72"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="69"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="35"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="72">
+      <c r="B21" s="63">
         <v>10</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="62" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="62" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -2779,67 +2791,67 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="72"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="44"/>
       <c r="H22" s="23"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="72"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="44"/>
       <c r="H23" s="23"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="72"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="44"/>
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="72"/>
-      <c r="C25" s="71"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="44"/>
       <c r="H25" s="23"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="72">
+      <c r="B26" s="63">
         <v>11</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="62" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="62" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="44"/>
@@ -2847,47 +2859,47 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="72"/>
-      <c r="C27" s="71"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="44"/>
       <c r="H27" s="23"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="72"/>
-      <c r="C28" s="71"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="59" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="35"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="72"/>
-      <c r="C29" s="71"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="69"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="35"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
@@ -2913,16 +2925,16 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="72">
+      <c r="B31" s="63">
         <v>13</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="62" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -2935,30 +2947,30 @@
       <c r="I31" s="35"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="72"/>
-      <c r="C32" s="71"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71" t="s">
+      <c r="E32" s="62"/>
+      <c r="F32" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="59" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="72"/>
-      <c r="C33" s="71"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="69"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="23"/>
       <c r="I33" s="1"/>
     </row>
@@ -2981,19 +2993,19 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="72">
+      <c r="B35" s="63">
         <v>15</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="62" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="62" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="44"/>
@@ -3001,19 +3013,70 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="72"/>
-      <c r="C36" s="71"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="44"/>
       <c r="H36" s="23"/>
       <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G6:G7"/>
@@ -3030,57 +3093,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3298,7 +3310,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -3457,12 +3469,20 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="49">
-        <v>42852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="75"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="49">
         <v>42853</v>
       </c>
@@ -3516,9 +3536,9 @@
   <mergeCells count="5">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1204,7 +1204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1367,71 +1367,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1797,10 +1806,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="60" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1816,8 +1825,8 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1831,8 +1840,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
@@ -1841,8 +1850,8 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="57"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -1853,10 +1862,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="56" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1865,88 +1874,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="56"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
@@ -1955,8 +1964,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1967,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="57" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1979,8 +1988,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
@@ -1991,10 +2000,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="57" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2003,16 +2012,16 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
@@ -2023,10 +2032,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="57" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2035,16 +2044,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
@@ -2055,10 +2064,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="58" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2067,16 +2076,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
@@ -2087,10 +2096,10 @@
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="59" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2099,16 +2108,16 @@
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="59"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="9"/>
@@ -2119,10 +2128,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="59" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2133,22 +2142,22 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="59"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="59"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="59"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="12"/>
@@ -2159,10 +2168,10 @@
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="57" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2171,40 +2180,40 @@
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="55"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="57"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="55"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="57"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="55"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="55"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="57"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="55"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="57"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
@@ -2218,7 +2227,7 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="56" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2227,18 +2236,18 @@
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="58"/>
+      <c r="D55" s="56"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
@@ -2247,10 +2256,10 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="56" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2261,18 +2270,18 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="D59" s="56" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2281,8 +2290,8 @@
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
@@ -2305,10 +2314,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="D63" s="56" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2317,8 +2326,8 @@
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="58"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="56"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
@@ -2335,16 +2344,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -2361,6 +2360,16 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2423,10 +2432,10 @@
       <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="66"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="33">
@@ -2451,28 +2460,28 @@
         <v>123</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="67"/>
+      <c r="O3" s="64"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="63">
+      <c r="B4" s="74">
         <v>2</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="73" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="70" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="23"/>
@@ -2483,14 +2492,14 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="63"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="60"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="K5" s="23" t="s">
@@ -2499,22 +2508,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="63">
+      <c r="B6" s="74">
         <v>3</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="73" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="70" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="23"/>
@@ -2525,14 +2534,14 @@
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="63"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="60"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="K7" s="23" t="s">
@@ -2541,22 +2550,22 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="63">
+      <c r="B8" s="74">
         <v>4</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="73" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="70" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="23"/>
@@ -2567,221 +2576,221 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="61"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="63"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="60"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="63">
+      <c r="B11" s="74">
         <v>5</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="73" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="70" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="63"/>
-      <c r="C12" s="62"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="60"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="63">
+      <c r="B13" s="74">
         <v>6</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="73" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="67" t="s">
         <v>117</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="63"/>
-      <c r="C14" s="62"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="71"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="63">
+      <c r="B15" s="74">
         <v>7</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="73" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="70" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="63"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="60"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="63">
+      <c r="B17" s="74">
         <v>8</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="73" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="72" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="35"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="63"/>
-      <c r="C18" s="62"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="60"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="71"/>
       <c r="I18" s="35"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="63">
+      <c r="B19" s="74">
         <v>9</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="73" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="70" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="35"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="63"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="60"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="35"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="63">
+      <c r="B21" s="74">
         <v>10</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="73" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="73" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -2791,67 +2800,67 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="63"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="44"/>
       <c r="H22" s="23"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="63"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="44"/>
       <c r="H23" s="23"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="63"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="44"/>
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="63"/>
-      <c r="C25" s="62"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="44"/>
       <c r="H25" s="23"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="63">
+      <c r="B26" s="74">
         <v>11</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="73" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="73" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="44"/>
@@ -2859,47 +2868,47 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="63"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="44"/>
       <c r="H27" s="23"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="63"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="70" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="35"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="63"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="60"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="71"/>
       <c r="I29" s="35"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
@@ -2925,16 +2934,16 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="63">
+      <c r="B31" s="74">
         <v>13</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="73" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="73" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -2947,30 +2956,30 @@
       <c r="I31" s="35"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="63"/>
-      <c r="C32" s="62"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62" t="s">
+      <c r="E32" s="73"/>
+      <c r="F32" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="70" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="63"/>
-      <c r="C33" s="62"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="60"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="23"/>
       <c r="I33" s="1"/>
     </row>
@@ -2993,19 +3002,19 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="63">
+      <c r="B35" s="74">
         <v>15</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="73" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="73" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="44"/>
@@ -3013,32 +3022,57 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="63"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="44"/>
       <c r="H36" s="23"/>
       <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B8:B10"/>
@@ -3055,44 +3089,19 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3310,7 +3319,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -3338,112 +3347,112 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="75">
+    <row r="2" spans="1:5" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="55">
+        <v>43797</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="77">
         <v>43798</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="75"/>
-      <c r="B3" s="74"/>
       <c r="C3" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="77"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E4" s="48" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A4" s="75"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="50" t="s">
+    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A5" s="77"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D5" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E5" s="48" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="75"/>
-      <c r="B5" s="74" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="77"/>
+      <c r="B6" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C6" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D6" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E6" s="48" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="75"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="75"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="53" t="s">
         <v>196</v>
       </c>
       <c r="D7" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="77"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E8" s="48" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="49">
-        <v>43797</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>205</v>
-      </c>
-    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="75">
+      <c r="A9" s="77">
         <v>43800</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="76" t="s">
         <v>206</v>
       </c>
       <c r="C9" s="50" t="s">
@@ -3457,8 +3466,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A10" s="75"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="50" t="s">
         <v>210</v>
       </c>
@@ -3470,8 +3479,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A11" s="75"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="50" t="s">
         <v>213</v>
       </c>
@@ -3534,9 +3543,9 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
   </mergeCells>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="219">
   <si>
     <t>추천여행지 상세</t>
   </si>
@@ -848,6 +848,18 @@
   </si>
   <si>
     <t>input type="submit" 을 button으로 변경하고 onclick시 validation 확인후 결과에 따라 submit or alert하도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이욱재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진순서가 저장한대로 안나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~6 번까지 중 0번은 제순서에 나오고 1~6번은 역순으로 나옴 -&gt; TEMPLIST를 만들어 기존대로 저장하고 LIST에 0번은 ADD한후 나머지는 역순으로 다시  ADD하여 해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1373,19 +1385,37 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1413,34 +1443,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1806,7 +1818,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="61" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="60" t="s">
@@ -1825,7 +1837,7 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="60"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1840,7 +1852,7 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -1850,7 +1862,7 @@
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -1862,10 +1874,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="61" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1874,88 +1886,88 @@
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="61"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="61"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="61"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="61"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="61"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="61"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="61"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
@@ -1964,8 +1976,8 @@
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="61"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
@@ -1976,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="58" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1988,8 +2000,8 @@
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
@@ -2000,10 +2012,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2012,16 +2024,16 @@
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
@@ -2032,10 +2044,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="58" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2044,16 +2056,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
@@ -2064,10 +2076,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="57" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2076,16 +2088,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
@@ -2096,7 +2108,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="61" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="59" t="s">
@@ -2108,7 +2120,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="56"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="59"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -2116,7 +2128,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="56"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="59"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -2128,7 +2140,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="61" t="s">
         <v>58</v>
       </c>
       <c r="D42" s="59" t="s">
@@ -2142,7 +2154,7 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="56"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="59"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -2150,13 +2162,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="56"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="59"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="56"/>
+      <c r="C45" s="61"/>
       <c r="D45" s="59"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -2168,10 +2180,10 @@
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2180,40 +2192,40 @@
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="57"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="58"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="57"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="58"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="57"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="58"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="57"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="58"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="57"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="58"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
@@ -2227,7 +2239,7 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="56" t="s">
+      <c r="D54" s="61" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2236,18 +2248,18 @@
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="56"/>
+      <c r="D55" s="61"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
@@ -2256,10 +2268,10 @@
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="61" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2270,18 +2282,18 @@
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="56" t="s">
+      <c r="D59" s="61" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2290,8 +2302,8 @@
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
@@ -2314,10 +2326,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="61" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2326,8 +2338,8 @@
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="56"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="61"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
@@ -2344,6 +2356,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -2360,16 +2382,6 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2432,10 +2444,10 @@
       <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="66"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="33">
@@ -2460,28 +2472,28 @@
         <v>123</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="N3" s="63" t="s">
+      <c r="N3" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="64"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="74">
+      <c r="B4" s="66">
         <v>2</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="65" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="62" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="23"/>
@@ -2492,14 +2504,14 @@
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="74"/>
-      <c r="C5" s="73"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="71"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="K5" s="23" t="s">
@@ -2508,22 +2520,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="74">
+      <c r="B6" s="66">
         <v>3</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="65" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="62" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="23"/>
@@ -2534,14 +2546,14 @@
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="74"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="71"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="63"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="K7" s="23" t="s">
@@ -2550,22 +2562,22 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="74">
+      <c r="B8" s="66">
         <v>4</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="65" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="62" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="23"/>
@@ -2576,221 +2588,221 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="74"/>
-      <c r="C9" s="73"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="75"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="74"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="71"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="74">
+      <c r="B11" s="66">
         <v>5</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="65" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="62" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="74"/>
-      <c r="C12" s="73"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="71"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="74">
+      <c r="B13" s="66">
         <v>6</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="65" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="73" t="s">
         <v>117</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="35"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="74"/>
-      <c r="C14" s="73"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="68"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="74">
+      <c r="B15" s="66">
         <v>7</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="65" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="62" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="74"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="71"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="74">
+      <c r="B17" s="66">
         <v>8</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="65" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="76" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="35"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="74"/>
-      <c r="C18" s="73"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="71"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="35"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="74">
+      <c r="B19" s="66">
         <v>9</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="65" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="62" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="35"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="74"/>
-      <c r="C20" s="73"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="71"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="35"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="74">
+      <c r="B21" s="66">
         <v>10</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="65" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="65" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -2800,67 +2812,67 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="74"/>
-      <c r="C22" s="73"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="44"/>
       <c r="H22" s="23"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="74"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="44"/>
       <c r="H23" s="23"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="74"/>
-      <c r="C24" s="73"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="44"/>
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="74"/>
-      <c r="C25" s="73"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="44"/>
       <c r="H25" s="23"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="74">
+      <c r="B26" s="66">
         <v>11</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="65" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="65" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="44"/>
@@ -2868,47 +2880,47 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="74"/>
-      <c r="C27" s="73"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="44"/>
       <c r="H27" s="23"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="74"/>
-      <c r="C28" s="73"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="73" t="s">
+      <c r="F28" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="62" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="35"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="74"/>
-      <c r="C29" s="73"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="71"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="35"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
@@ -2934,16 +2946,16 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="74">
+      <c r="B31" s="66">
         <v>13</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="65" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="65" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -2956,30 +2968,30 @@
       <c r="I31" s="35"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="74"/>
-      <c r="C32" s="73"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73" t="s">
+      <c r="E32" s="65"/>
+      <c r="F32" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="70" t="s">
+      <c r="G32" s="62" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="74"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="71"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="23"/>
       <c r="I33" s="1"/>
     </row>
@@ -3002,19 +3014,19 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="74">
+      <c r="B35" s="66">
         <v>15</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="65" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="73" t="s">
+      <c r="E35" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F35" s="65" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="44"/>
@@ -3022,19 +3034,70 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="74"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="44"/>
       <c r="H36" s="23"/>
       <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G6:G7"/>
@@ -3051,57 +3114,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3319,7 +3331,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -3347,7 +3359,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="78" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="55">
         <v>43797</v>
       </c>
@@ -3365,10 +3377,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="77">
+      <c r="A3" s="78">
         <v>43798</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>203</v>
       </c>
       <c r="C3" s="50" t="s">
@@ -3382,8 +3394,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="77"/>
-      <c r="B4" s="76"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="50" t="s">
         <v>190</v>
       </c>
@@ -3395,8 +3407,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A5" s="77"/>
-      <c r="B5" s="76"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="50" t="s">
         <v>108</v>
       </c>
@@ -3408,8 +3420,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="77"/>
-      <c r="B6" s="76" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="77" t="s">
         <v>203</v>
       </c>
       <c r="C6" s="50" t="s">
@@ -3423,8 +3435,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="77"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="53" t="s">
         <v>196</v>
       </c>
@@ -3436,8 +3448,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="77"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="53" t="s">
         <v>196</v>
       </c>
@@ -3449,10 +3461,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="77">
+      <c r="A9" s="78">
         <v>43800</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="77" t="s">
         <v>206</v>
       </c>
       <c r="C9" s="50" t="s">
@@ -3466,8 +3478,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A10" s="77"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="50" t="s">
         <v>210</v>
       </c>
@@ -3479,8 +3491,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A11" s="77"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="50" t="s">
         <v>213</v>
       </c>
@@ -3491,12 +3503,20 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="49">
-        <v>42853</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A12" s="78"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="49">
         <v>42854</v>
       </c>
@@ -3546,8 +3566,8 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/기타문서/ToDo 관리.xlsx
+++ b/doc/기타문서/ToDo 관리.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="23052" windowHeight="13176" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23055" windowHeight="13170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -743,10 +743,6 @@
     <t>trouble shooting</t>
   </si>
   <si>
-    <t>임의의 학교 강의 목록을 json타입으로 프로젝트 내 저장 해두고,
-현재 DB에 없는 학교로 가입이 들어올 때마다 json타입을 읽어와 개설강의 DB테이블에 추가</t>
-  </si>
-  <si>
     <t>이욱재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -860,14 +856,18 @@
   </si>
   <si>
     <t>0~6 번까지 중 0번은 제순서에 나오고 1~6번은 역순으로 나옴 -&gt; TEMPLIST를 만들어 기존대로 저장하고 LIST에 0번은 ADD한후 나머지는 역순으로 다시  ADD하여 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진있는 작성물 수정시 반드시 사진을 입력하도록 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1388,65 +1388,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1546,7 +1546,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1581,7 +1580,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1757,22 +1755,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1797,7 +1795,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1809,19 +1807,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="1"/>
@@ -1832,13 +1830,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="60"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1847,391 +1845,391 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="60"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C6" s="57"/>
+      <c r="D6" s="61"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="60"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C7" s="57"/>
+      <c r="D7" s="61"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="61"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C10" s="59"/>
+      <c r="D10" s="57"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="61"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C11" s="59"/>
+      <c r="D11" s="57"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="61"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C12" s="59"/>
+      <c r="D12" s="57"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="61"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C13" s="59"/>
+      <c r="D13" s="57"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="61"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C14" s="59"/>
+      <c r="D14" s="57"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="61"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C15" s="59"/>
+      <c r="D15" s="57"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="61"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C16" s="59"/>
+      <c r="D16" s="57"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="61"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="59"/>
+      <c r="D17" s="57"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="61"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="59"/>
+      <c r="D18" s="57"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="61"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="59"/>
+      <c r="D19" s="57"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="61"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C20" s="59"/>
+      <c r="D20" s="57"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="61"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C21" s="59"/>
+      <c r="D21" s="57"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="57" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="61"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="58"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="57" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="61"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="58"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="61"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="58"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="57" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="61"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="58"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="61"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="58"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="59" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="59"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C39" s="57"/>
+      <c r="D39" s="60"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="59"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C40" s="57"/>
+      <c r="D40" s="60"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="59"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C43" s="57"/>
+      <c r="D43" s="60"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="59"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C44" s="57"/>
+      <c r="D44" s="60"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="59"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C45" s="57"/>
+      <c r="D45" s="60"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="12"/>
       <c r="B46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="57" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="61"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="58"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="61"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="58"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="61"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="58"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="61"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="58"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="61"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="58"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
@@ -2239,73 +2237,73 @@
       <c r="C54" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="61" t="s">
+      <c r="D54" s="57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="61"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D55" s="57"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="61" t="s">
+      <c r="D57" s="57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="61" t="s">
+      <c r="D59" s="57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2317,11 +2315,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -2329,23 +2327,23 @@
       <c r="C63" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="61" t="s">
+      <c r="D63" s="57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="58"/>
-      <c r="D64" s="61"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D64" s="57"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -2356,16 +2354,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D42:D45"/>
@@ -2382,6 +2370,16 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="C47:C52"/>
     <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2390,32 +2388,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="3.5" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="34"/>
-    <col min="8" max="8" width="27.69921875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.75" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="18"/>
-    <col min="11" max="11" width="11.09765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9" style="18"/>
-    <col min="15" max="15" width="17.19921875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="17.25" style="18" customWidth="1"/>
     <col min="16" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" s="27" customFormat="1" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:15" s="27" customFormat="1" ht="18" thickBot="1">
       <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
@@ -2444,12 +2442,12 @@
       <c r="L2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="72"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O2" s="67"/>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3" s="33">
         <v>1</v>
       </c>
@@ -2472,28 +2470,28 @@
         <v>123</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="N3" s="69" t="s">
+      <c r="N3" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="70"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="66">
+      <c r="O3" s="65"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="75">
         <v>2</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="74" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="71" t="s">
         <v>138</v>
       </c>
       <c r="H4" s="23"/>
@@ -2503,15 +2501,15 @@
       </c>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="66"/>
-      <c r="C5" s="65"/>
+    <row r="5" spans="2:15">
+      <c r="B5" s="75"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="63"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="K5" s="23" t="s">
@@ -2519,23 +2517,23 @@
       </c>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="66">
+    <row r="6" spans="2:15">
+      <c r="B6" s="75">
         <v>3</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="74" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="71" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="23"/>
@@ -2545,15 +2543,15 @@
       </c>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="66"/>
-      <c r="C7" s="65"/>
+    <row r="7" spans="2:15">
+      <c r="B7" s="75"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="63"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="72"/>
       <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="K7" s="23" t="s">
@@ -2561,23 +2559,23 @@
       </c>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="66">
+    <row r="8" spans="2:15">
+      <c r="B8" s="75">
         <v>4</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="74" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="71" t="s">
         <v>136</v>
       </c>
       <c r="H8" s="23"/>
@@ -2587,222 +2585,222 @@
       </c>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="66"/>
-      <c r="C9" s="65"/>
+    <row r="9" spans="2:15">
+      <c r="B9" s="75"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="23"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="66"/>
-      <c r="C10" s="65"/>
+    <row r="10" spans="2:15">
+      <c r="B10" s="75"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="63"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="23"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="66">
+    <row r="11" spans="2:15">
+      <c r="B11" s="75">
         <v>5</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="74" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="71" t="s">
         <v>139</v>
       </c>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="66"/>
-      <c r="C12" s="65"/>
+    <row r="12" spans="2:15">
+      <c r="B12" s="75"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="63"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="72"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="66">
+    <row r="13" spans="2:15">
+      <c r="B13" s="75">
         <v>6</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="74" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="68" t="s">
         <v>117</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="66"/>
-      <c r="C14" s="65"/>
+    <row r="14" spans="2:15">
+      <c r="B14" s="75"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="36"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="66">
+    <row r="15" spans="2:15">
+      <c r="B15" s="75">
         <v>7</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="74" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="71" t="s">
         <v>132</v>
       </c>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="66"/>
-      <c r="C16" s="65"/>
+    <row r="16" spans="2:15">
+      <c r="B16" s="75"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="63"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="72"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="66">
+    <row r="17" spans="2:9">
+      <c r="B17" s="75">
         <v>8</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="74" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H17" s="73" t="s">
         <v>142</v>
       </c>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="66"/>
-      <c r="C18" s="65"/>
+    <row r="18" spans="2:9">
+      <c r="B18" s="75"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="63"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="72"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="66">
+    <row r="19" spans="2:9">
+      <c r="B19" s="75">
         <v>9</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="74" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="75" t="s">
+      <c r="G19" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="71" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="66"/>
-      <c r="C20" s="65"/>
+    <row r="20" spans="2:9">
+      <c r="B20" s="75"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="63"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="72"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="66">
+    <row r="21" spans="2:9">
+      <c r="B21" s="75">
         <v>10</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="74" t="s">
         <v>88</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="74" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="42" t="s">
@@ -2811,119 +2809,119 @@
       <c r="H21" s="23"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="66"/>
-      <c r="C22" s="65"/>
+    <row r="22" spans="2:9">
+      <c r="B22" s="75"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="44"/>
       <c r="H22" s="23"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="66"/>
-      <c r="C23" s="65"/>
+    <row r="23" spans="2:9">
+      <c r="B23" s="75"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="44"/>
       <c r="H23" s="23"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="66"/>
-      <c r="C24" s="65"/>
+    <row r="24" spans="2:9">
+      <c r="B24" s="75"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="44"/>
       <c r="H24" s="23"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="66"/>
-      <c r="C25" s="65"/>
+    <row r="25" spans="2:9">
+      <c r="B25" s="75"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="44"/>
       <c r="H25" s="23"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="66">
+    <row r="26" spans="2:9">
+      <c r="B26" s="75">
         <v>11</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="74" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="74" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="23"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="66"/>
-      <c r="C27" s="65"/>
+    <row r="27" spans="2:9">
+      <c r="B27" s="75"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="44"/>
       <c r="H27" s="23"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="66"/>
-      <c r="C28" s="65"/>
+    <row r="28" spans="2:9">
+      <c r="B28" s="75"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="67" t="s">
+      <c r="G28" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="71" t="s">
         <v>133</v>
       </c>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="66"/>
-      <c r="C29" s="65"/>
+    <row r="29" spans="2:9">
+      <c r="B29" s="75"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="63"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="72"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9">
       <c r="B30" s="26">
         <v>12</v>
       </c>
@@ -2945,17 +2943,17 @@
       <c r="H30" s="23"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="66">
+    <row r="31" spans="2:9">
+      <c r="B31" s="75">
         <v>13</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="74" t="s">
         <v>106</v>
       </c>
       <c r="F31" s="20" t="s">
@@ -2967,35 +2965,35 @@
       <c r="H31" s="36"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="66"/>
-      <c r="C32" s="65"/>
+    <row r="32" spans="2:9">
+      <c r="B32" s="75"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65" t="s">
+      <c r="E32" s="74"/>
+      <c r="F32" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="71" t="s">
         <v>135</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="66"/>
-      <c r="C33" s="65"/>
+    <row r="33" spans="2:9">
+      <c r="B33" s="75"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="63"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="72"/>
       <c r="H33" s="23"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9">
       <c r="B34" s="26">
         <v>14</v>
       </c>
@@ -3013,53 +3011,78 @@
       <c r="H34" s="23"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="66">
+    <row r="35" spans="2:9">
+      <c r="B35" s="75">
         <v>15</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="74" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="74" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="44"/>
       <c r="H35" s="23"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="66"/>
-      <c r="C36" s="65"/>
+    <row r="36" spans="2:9">
+      <c r="B36" s="75"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="44"/>
       <c r="H36" s="23"/>
       <c r="I36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="B8:B10"/>
@@ -3076,44 +3099,19 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3122,22 +3120,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -3154,7 +3152,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>145</v>
       </c>
@@ -3165,7 +3163,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -3173,7 +3171,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -3189,17 +3187,17 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -3207,22 +3205,22 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="B10" s="45" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6">
       <c r="B11" s="45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -3230,17 +3228,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -3248,17 +3246,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -3266,32 +3264,32 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="B19" s="45" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="B21" s="45" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="B23" s="45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -3299,7 +3297,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -3307,7 +3305,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -3315,7 +3313,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2">
       <c r="B27" t="s">
         <v>181</v>
       </c>
@@ -3327,24 +3325,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="50" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="48" customWidth="1"/>
     <col min="5" max="5" width="70" style="48" customWidth="1"/>
     <col min="6" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" s="46" t="s">
         <v>185</v>
       </c>
@@ -3359,204 +3357,204 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="56" customFormat="1">
       <c r="A2" s="55">
         <v>43797</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="54" t="s">
         <v>111</v>
       </c>
       <c r="D2" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:5" ht="24">
       <c r="A3" s="78">
         <v>43798</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>191</v>
-      </c>
       <c r="E3" s="51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="78"/>
       <c r="B4" s="77"/>
       <c r="C4" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:5" ht="24">
       <c r="A5" s="78"/>
       <c r="B5" s="77"/>
       <c r="C5" s="50" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="78"/>
       <c r="B6" s="77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="E6" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="78"/>
       <c r="B7" s="77"/>
       <c r="C7" s="53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="78"/>
       <c r="B8" s="77"/>
       <c r="C8" s="53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D8" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="78">
         <v>43800</v>
       </c>
       <c r="B9" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="E9" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:5" ht="24">
       <c r="A10" s="78"/>
       <c r="B10" s="77"/>
       <c r="C10" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="E10" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:5" ht="24">
       <c r="A11" s="78"/>
       <c r="B11" s="77"/>
       <c r="C11" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="E11" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="E11" s="48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="26.4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:5" ht="24">
       <c r="A12" s="78"/>
       <c r="B12" s="77"/>
       <c r="C12" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="E12" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="49">
         <v>42854</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="49">
         <v>42855</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="49">
         <v>42856</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="49">
         <v>42857</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="49">
         <v>42858</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="49">
         <v>42859</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="49">
         <v>42860</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="49">
         <v>42861</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="49">
         <v>42862</v>
       </c>
